--- a/Test-Case-on-Evaly.com.xlsx
+++ b/Test-Case-on-Evaly.com.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rimi USA\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rimi USA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4190"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Plane" sheetId="11" r:id="rId1"/>
+    <sheet name="Test Plan" sheetId="11" r:id="rId1"/>
     <sheet name="Mind Map" sheetId="2" r:id="rId2"/>
     <sheet name="Test Scenarios" sheetId="3" r:id="rId3"/>
     <sheet name="Test Summary Report" sheetId="4" r:id="rId4"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="594">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -2085,6 +2085,18 @@
     <t>● Verify the expected result and correct application state.</t>
   </si>
   <si>
+    <t>of the bikroy.com.bd webpage by thoroughly assessing its various</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               Test Plan for Bikroy.com.bd</t>
+  </si>
+  <si>
+    <t>Bikroy.com.bd is an e-commerce platform which is capable of providing</t>
+  </si>
+  <si>
+    <t>Bikroy</t>
+  </si>
+  <si>
     <t>Sumiya Akter</t>
   </si>
   <si>
@@ -2118,18 +2130,12 @@
   <si>
     <t>A</t>
   </si>
-  <si>
-    <t xml:space="preserve">               Test Plan for Evaly.com.bd</t>
-  </si>
-  <si>
-    <t>Evaly.com.bd is an e-commerce platform which is capable of providing</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="46" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2418,28 +2424,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="39">
@@ -2985,7 +2969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3325,44 +3309,55 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3373,27 +3368,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="41" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3433,27 +3484,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3469,97 +3527,11 @@
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="38" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="36" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="35" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3611,7 +3583,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3754,7 +3725,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -4052,8 +4022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I115" sqref="I115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4064,1389 +4034,1397 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="184" t="s">
-        <v>590</v>
-      </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
+      <c r="A1" s="132" t="s">
+        <v>583</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="132"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="184"/>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
-      <c r="E2" s="184"/>
-      <c r="F2" s="184"/>
-      <c r="G2" s="184"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
+      <c r="A2" s="132"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="186"/>
-      <c r="B3" s="186"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="186"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="186"/>
-      <c r="B4" s="186"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="186"/>
-      <c r="F4" s="186"/>
-      <c r="G4" s="186"/>
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
     </row>
     <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="188" t="s">
+      <c r="A5" s="119" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="188"/>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="B5" s="119"/>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="117"/>
+      <c r="G5" s="117"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="118"/>
     </row>
     <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="117" t="s">
         <v>489</v>
       </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="117"/>
+      <c r="F6" s="117"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
     </row>
     <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="186" t="s">
+      <c r="A7" s="117" t="s">
         <v>490</v>
       </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
     </row>
     <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="186" t="s">
+      <c r="A8" s="117" t="s">
         <v>491</v>
       </c>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="186"/>
-      <c r="F8" s="186"/>
-      <c r="G8" s="186"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="118"/>
+      <c r="I8" s="118"/>
     </row>
     <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="186" t="s">
+      <c r="A9" s="117" t="s">
         <v>492</v>
       </c>
-      <c r="B9" s="186"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="187"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="118"/>
     </row>
     <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="186" t="s">
+      <c r="A10" s="117" t="s">
         <v>493</v>
       </c>
-      <c r="B10" s="186"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
     </row>
     <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="117" t="s">
         <v>494</v>
       </c>
-      <c r="B11" s="186"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="187"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
     </row>
     <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="186" t="s">
+      <c r="A12" s="117" t="s">
         <v>495</v>
       </c>
-      <c r="B12" s="186"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="187"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="118"/>
     </row>
     <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="188" t="s">
+      <c r="A13" s="119" t="s">
         <v>496</v>
       </c>
-      <c r="B13" s="188"/>
-      <c r="C13" s="188"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="187"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
     </row>
     <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="186" t="s">
-        <v>591</v>
-      </c>
-      <c r="B14" s="186"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="186"/>
-      <c r="E14" s="186"/>
-      <c r="F14" s="186"/>
-      <c r="G14" s="186"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="187"/>
+      <c r="A14" s="117" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" s="117"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="118"/>
     </row>
     <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="186" t="s">
+      <c r="A15" s="117" t="s">
         <v>497</v>
       </c>
-      <c r="B15" s="186"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="186"/>
-      <c r="E15" s="186"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="187"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="118"/>
     </row>
     <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="186" t="s">
+      <c r="A16" s="117" t="s">
         <v>498</v>
       </c>
-      <c r="B16" s="186"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="186"/>
-      <c r="F16" s="186"/>
-      <c r="G16" s="186"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="187"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="118"/>
     </row>
     <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="117" t="s">
         <v>499</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="118"/>
     </row>
     <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="186" t="s">
+      <c r="A18" s="117" t="s">
         <v>500</v>
       </c>
-      <c r="B18" s="186"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="186"/>
-      <c r="E18" s="186"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
     </row>
     <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="186" t="s">
+      <c r="A19" s="117" t="s">
         <v>501</v>
       </c>
-      <c r="B19" s="186"/>
-      <c r="C19" s="186"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="187"/>
-      <c r="I19" s="187"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="118"/>
     </row>
     <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="188" t="s">
+      <c r="A20" s="119" t="s">
         <v>502</v>
       </c>
-      <c r="B20" s="188"/>
-      <c r="C20" s="186"/>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
-      <c r="H20" s="187"/>
-      <c r="I20" s="187"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="118"/>
     </row>
     <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="186" t="s">
+      <c r="A21" s="117" t="s">
         <v>503</v>
       </c>
-      <c r="B21" s="186"/>
-      <c r="C21" s="186"/>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
-      <c r="H21" s="187"/>
-      <c r="I21" s="187"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="118"/>
     </row>
     <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="186" t="s">
+      <c r="A22" s="117" t="s">
+        <v>582</v>
+      </c>
+      <c r="B22" s="117"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="118"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="117" t="s">
         <v>504</v>
       </c>
-      <c r="B22" s="186"/>
-      <c r="C22" s="186"/>
-      <c r="D22" s="186"/>
-      <c r="E22" s="186"/>
-      <c r="F22" s="186"/>
-      <c r="G22" s="186"/>
-      <c r="H22" s="187"/>
-      <c r="I22" s="187"/>
-    </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="186" t="s">
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="117" t="s">
         <v>505</v>
       </c>
-      <c r="B23" s="186"/>
-      <c r="C23" s="186"/>
-      <c r="D23" s="186"/>
-      <c r="E23" s="186"/>
-      <c r="F23" s="186"/>
-      <c r="G23" s="186"/>
-      <c r="H23" s="187"/>
-      <c r="I23" s="187"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="186" t="s">
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="117" t="s">
         <v>506</v>
       </c>
-      <c r="B24" s="186"/>
-      <c r="C24" s="186"/>
-      <c r="D24" s="186"/>
-      <c r="E24" s="186"/>
-      <c r="F24" s="186"/>
-      <c r="G24" s="186"/>
-      <c r="H24" s="187"/>
-      <c r="I24" s="187"/>
-    </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="186" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="117" t="s">
         <v>507</v>
       </c>
-      <c r="B25" s="188"/>
-      <c r="C25" s="186"/>
-      <c r="D25" s="186"/>
-      <c r="E25" s="186"/>
-      <c r="F25" s="186"/>
-      <c r="G25" s="186"/>
-      <c r="H25" s="187"/>
-      <c r="I25" s="187"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="188" t="s">
+      <c r="B26" s="117"/>
+      <c r="C26" s="117"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="119" t="s">
         <v>508</v>
       </c>
-      <c r="B26" s="186"/>
-      <c r="C26" s="188"/>
-      <c r="D26" s="186"/>
-      <c r="E26" s="186"/>
-      <c r="F26" s="186"/>
-      <c r="G26" s="186"/>
-      <c r="H26" s="187"/>
-      <c r="I26" s="187"/>
-    </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="186" t="s">
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117" t="s">
+        <v>585</v>
+      </c>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="118"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="117" t="s">
         <v>509</v>
       </c>
-      <c r="B27" s="186"/>
-      <c r="C27" s="186"/>
-      <c r="D27" s="186"/>
-      <c r="E27" s="186"/>
-      <c r="F27" s="186"/>
-      <c r="G27" s="186"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-    </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="186" t="s">
+      <c r="B28" s="117"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="117" t="s">
         <v>510</v>
       </c>
-      <c r="B28" s="186"/>
-      <c r="C28" s="186"/>
-      <c r="D28" s="186"/>
-      <c r="E28" s="186"/>
-      <c r="F28" s="186"/>
-      <c r="G28" s="186"/>
-      <c r="H28" s="187"/>
-      <c r="I28" s="187"/>
-    </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="186" t="s">
+      <c r="B29" s="117"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="117" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="186"/>
-      <c r="C29" s="186"/>
-      <c r="D29" s="186"/>
-      <c r="E29" s="186"/>
-      <c r="F29" s="186"/>
-      <c r="G29" s="186"/>
-      <c r="H29" s="187"/>
-      <c r="I29" s="187"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="186"/>
-      <c r="B30" s="188"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="187"/>
-      <c r="I30" s="187"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="117"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
     </row>
     <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="188" t="s">
+      <c r="A31" s="117"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="117"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="119" t="s">
         <v>512</v>
       </c>
-      <c r="B31" s="186"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="187"/>
-      <c r="I31" s="187"/>
-    </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="186" t="s">
+      <c r="B32" s="119"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="118"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="117" t="s">
         <v>513</v>
       </c>
-      <c r="B32" s="186"/>
-      <c r="C32" s="186"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="187"/>
-      <c r="I32" s="187"/>
-    </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="186" t="s">
+      <c r="B33" s="117"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="118"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="117" t="s">
         <v>514</v>
       </c>
-      <c r="B33" s="186"/>
-      <c r="C33" s="186"/>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="187"/>
-      <c r="I33" s="187"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="186" t="s">
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="118"/>
+      <c r="I34" s="118"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="117" t="s">
         <v>515</v>
       </c>
-      <c r="B34" s="186"/>
-      <c r="C34" s="186"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="187"/>
-      <c r="I34" s="187"/>
-    </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="186" t="s">
+      <c r="B35" s="117"/>
+      <c r="C35" s="117"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="117" t="s">
         <v>516</v>
       </c>
-      <c r="B35" s="186"/>
-      <c r="C35" s="186"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-    </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="186" t="s">
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="118"/>
+      <c r="I36" s="118"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A37" s="117" t="s">
         <v>517</v>
       </c>
-      <c r="B36" s="186"/>
-      <c r="C36" s="186"/>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-    </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="186" t="s">
+      <c r="B37" s="117"/>
+      <c r="C37" s="117"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="117" t="s">
         <v>518</v>
       </c>
-      <c r="B37" s="186"/>
-      <c r="C37" s="186"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="187"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="186" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="118"/>
+      <c r="I38" s="118"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A39" s="117" t="s">
         <v>519</v>
       </c>
-      <c r="B38" s="186"/>
-      <c r="C38" s="186"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="187"/>
-      <c r="I38" s="187"/>
-    </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="186" t="s">
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="118"/>
+      <c r="I39" s="118"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A40" s="117" t="s">
         <v>520</v>
       </c>
-      <c r="B39" s="186"/>
-      <c r="C39" s="186"/>
-      <c r="D39" s="186"/>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="187"/>
-    </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A40" s="186"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="186"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="187"/>
-      <c r="I40" s="187"/>
+      <c r="B40" s="117"/>
+      <c r="C40" s="117"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="118"/>
+      <c r="I40" s="118"/>
     </row>
     <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A41" s="188" t="s">
+      <c r="A41" s="117"/>
+      <c r="B41" s="117"/>
+      <c r="C41" s="117"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="118"/>
+      <c r="I41" s="118"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A42" s="119" t="s">
         <v>521</v>
       </c>
-      <c r="B41" s="186"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="187"/>
-      <c r="I41" s="187"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="186" t="s">
+      <c r="B42" s="119"/>
+      <c r="C42" s="119"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="118"/>
+      <c r="I42" s="118"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="117" t="s">
         <v>522</v>
       </c>
-      <c r="B42" s="186"/>
-      <c r="C42" s="186"/>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-    </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="186" t="s">
+      <c r="B43" s="117"/>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A44" s="117" t="s">
         <v>523</v>
       </c>
-      <c r="B43" s="186"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="186"/>
-      <c r="E43" s="186"/>
-      <c r="F43" s="186"/>
-      <c r="G43" s="186"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-    </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="186" t="s">
+      <c r="B44" s="117"/>
+      <c r="C44" s="117"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="118"/>
+      <c r="I44" s="118"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A45" s="117" t="s">
         <v>524</v>
       </c>
-      <c r="B44" s="186"/>
-      <c r="C44" s="186"/>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-    </row>
-    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="186" t="s">
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="118"/>
+      <c r="I45" s="118"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A46" s="117" t="s">
         <v>525</v>
       </c>
-      <c r="B45" s="186"/>
-      <c r="C45" s="186"/>
-      <c r="D45" s="186"/>
-      <c r="E45" s="186"/>
-      <c r="F45" s="186"/>
-      <c r="G45" s="186"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A46" s="186"/>
-      <c r="B46" s="188"/>
-      <c r="C46" s="186"/>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="118"/>
+      <c r="I46" s="118"/>
     </row>
     <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A47" s="188" t="s">
+      <c r="A47" s="117"/>
+      <c r="B47" s="117"/>
+      <c r="C47" s="117"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="118"/>
+      <c r="I47" s="118"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A48" s="119" t="s">
         <v>526</v>
       </c>
-      <c r="B47" s="186"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186"/>
-      <c r="F47" s="186"/>
-      <c r="G47" s="186"/>
-      <c r="H47" s="187"/>
-      <c r="I47" s="187"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="186" t="s">
+      <c r="B48" s="119"/>
+      <c r="C48" s="119"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="117" t="s">
         <v>527</v>
       </c>
-      <c r="B48" s="186"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="187"/>
-      <c r="I48" s="187"/>
-    </row>
-    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A49" s="186" t="s">
+      <c r="B49" s="117"/>
+      <c r="C49" s="117"/>
+      <c r="D49" s="117"/>
+      <c r="E49" s="117"/>
+      <c r="F49" s="117"/>
+      <c r="G49" s="117"/>
+      <c r="H49" s="118"/>
+      <c r="I49" s="118"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A50" s="117" t="s">
         <v>528</v>
       </c>
-      <c r="B49" s="186"/>
-      <c r="C49" s="186"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186"/>
-      <c r="F49" s="186"/>
-      <c r="G49" s="186"/>
-      <c r="H49" s="187"/>
-      <c r="I49" s="187"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="186" t="s">
+      <c r="B50" s="117"/>
+      <c r="C50" s="117"/>
+      <c r="D50" s="117"/>
+      <c r="E50" s="117"/>
+      <c r="F50" s="117"/>
+      <c r="G50" s="117"/>
+      <c r="H50" s="118"/>
+      <c r="I50" s="118"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="117" t="s">
         <v>529</v>
       </c>
-      <c r="B50" s="186"/>
-      <c r="C50" s="186"/>
-      <c r="D50" s="186"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="187"/>
-      <c r="I50" s="187"/>
-    </row>
-    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A51" s="186" t="s">
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
+      <c r="D51" s="117"/>
+      <c r="E51" s="117"/>
+      <c r="F51" s="117"/>
+      <c r="G51" s="117"/>
+      <c r="H51" s="118"/>
+      <c r="I51" s="118"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A52" s="117" t="s">
         <v>530</v>
       </c>
-      <c r="B51" s="186"/>
-      <c r="C51" s="186"/>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186"/>
-      <c r="F51" s="186"/>
-      <c r="G51" s="186"/>
-      <c r="H51" s="187"/>
-      <c r="I51" s="187"/>
-    </row>
-    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="186"/>
-      <c r="B52" s="188"/>
-      <c r="C52" s="186"/>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="187"/>
-      <c r="I52" s="187"/>
+      <c r="B52" s="117"/>
+      <c r="C52" s="117"/>
+      <c r="D52" s="117"/>
+      <c r="E52" s="117"/>
+      <c r="F52" s="117"/>
+      <c r="G52" s="117"/>
+      <c r="H52" s="118"/>
+      <c r="I52" s="118"/>
     </row>
     <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="188" t="s">
+      <c r="A53" s="117"/>
+      <c r="B53" s="117"/>
+      <c r="C53" s="117"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="117"/>
+      <c r="F53" s="117"/>
+      <c r="G53" s="117"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A54" s="119" t="s">
         <v>531</v>
       </c>
-      <c r="B53" s="186"/>
-      <c r="C53" s="188"/>
-      <c r="D53" s="186"/>
-      <c r="E53" s="186"/>
-      <c r="F53" s="186"/>
-      <c r="G53" s="186"/>
-      <c r="H53" s="187"/>
-      <c r="I53" s="187"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="186" t="s">
+      <c r="B54" s="119"/>
+      <c r="C54" s="119"/>
+      <c r="D54" s="117"/>
+      <c r="E54" s="117"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="118"/>
+      <c r="I54" s="118"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A55" s="117" t="s">
         <v>532</v>
       </c>
-      <c r="B54" s="186"/>
-      <c r="C54" s="186"/>
-      <c r="D54" s="186"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="187"/>
-      <c r="I54" s="187"/>
-    </row>
-    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="186" t="s">
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A56" s="117" t="s">
         <v>533</v>
       </c>
-      <c r="B55" s="186"/>
-      <c r="C55" s="186"/>
-      <c r="D55" s="186"/>
-      <c r="E55" s="186"/>
-      <c r="F55" s="186"/>
-      <c r="G55" s="186"/>
-      <c r="H55" s="187"/>
-      <c r="I55" s="187"/>
-    </row>
-    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="186" t="s">
+      <c r="B56" s="117"/>
+      <c r="C56" s="117"/>
+      <c r="D56" s="117"/>
+      <c r="E56" s="117"/>
+      <c r="F56" s="117"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A57" s="117" t="s">
         <v>534</v>
       </c>
-      <c r="B56" s="186"/>
-      <c r="C56" s="186"/>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="187"/>
-      <c r="I56" s="187"/>
-    </row>
-    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="186" t="s">
+      <c r="B57" s="117"/>
+      <c r="C57" s="117"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="117"/>
+      <c r="F57" s="117"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A58" s="117" t="s">
         <v>535</v>
       </c>
-      <c r="B57" s="186"/>
-      <c r="C57" s="186"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186"/>
-      <c r="F57" s="186"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="187"/>
-      <c r="I57" s="187"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="186" t="s">
+      <c r="B58" s="117"/>
+      <c r="C58" s="117"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="117"/>
+      <c r="F58" s="117"/>
+      <c r="G58" s="117"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A59" s="117" t="s">
         <v>536</v>
       </c>
-      <c r="B58" s="186"/>
-      <c r="C58" s="186"/>
-      <c r="D58" s="186"/>
-      <c r="E58" s="186"/>
-      <c r="F58" s="186"/>
-      <c r="G58" s="186"/>
-      <c r="H58" s="187"/>
-      <c r="I58" s="187"/>
-    </row>
-    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="186" t="s">
+      <c r="B59" s="117"/>
+      <c r="C59" s="117"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="117"/>
+      <c r="F59" s="117"/>
+      <c r="G59" s="117"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A60" s="117" t="s">
         <v>537</v>
       </c>
-      <c r="B59" s="186"/>
-      <c r="C59" s="186"/>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186"/>
-      <c r="F59" s="186"/>
-      <c r="G59" s="186"/>
-      <c r="H59" s="187"/>
-      <c r="I59" s="187"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="186"/>
-      <c r="B60" s="188"/>
-      <c r="C60" s="186"/>
-      <c r="D60" s="186"/>
-      <c r="E60" s="186"/>
-      <c r="F60" s="186"/>
-      <c r="G60" s="186"/>
-      <c r="H60" s="187"/>
-      <c r="I60" s="187"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="117"/>
+      <c r="E60" s="117"/>
+      <c r="F60" s="117"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="118"/>
+      <c r="I60" s="118"/>
     </row>
     <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="188" t="s">
+      <c r="A61" s="117"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="117"/>
+      <c r="E61" s="117"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="118"/>
+      <c r="I61" s="118"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A62" s="119" t="s">
         <v>538</v>
       </c>
-      <c r="B61" s="186"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="187"/>
-      <c r="I61" s="187"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="186" t="s">
+      <c r="B62" s="119"/>
+      <c r="C62" s="119"/>
+      <c r="D62" s="117"/>
+      <c r="E62" s="117"/>
+      <c r="F62" s="117"/>
+      <c r="G62" s="117"/>
+      <c r="H62" s="118"/>
+      <c r="I62" s="118"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A63" s="117" t="s">
         <v>539</v>
       </c>
-      <c r="B62" s="186"/>
-      <c r="C62" s="186"/>
-      <c r="D62" s="186"/>
-      <c r="E62" s="186"/>
-      <c r="F62" s="186"/>
-      <c r="G62" s="186"/>
-      <c r="H62" s="187"/>
-      <c r="I62" s="187"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="186" t="s">
+      <c r="B63" s="117"/>
+      <c r="C63" s="117"/>
+      <c r="D63" s="117"/>
+      <c r="E63" s="117"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="117"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A64" s="117" t="s">
         <v>540</v>
       </c>
-      <c r="B63" s="186"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="186"/>
-      <c r="E63" s="186"/>
-      <c r="F63" s="186"/>
-      <c r="G63" s="186"/>
-      <c r="H63" s="187"/>
-      <c r="I63" s="187"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="186" t="s">
+      <c r="B64" s="117"/>
+      <c r="C64" s="117"/>
+      <c r="D64" s="117"/>
+      <c r="E64" s="117"/>
+      <c r="F64" s="117"/>
+      <c r="G64" s="117"/>
+      <c r="H64" s="118"/>
+      <c r="I64" s="118"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="117" t="s">
         <v>541</v>
       </c>
-      <c r="B64" s="186"/>
-      <c r="C64" s="186"/>
-      <c r="D64" s="186"/>
-      <c r="E64" s="186"/>
-      <c r="F64" s="186"/>
-      <c r="G64" s="186"/>
-      <c r="H64" s="187"/>
-      <c r="I64" s="187"/>
-    </row>
-    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="186" t="s">
+      <c r="B65" s="117"/>
+      <c r="C65" s="117"/>
+      <c r="D65" s="117"/>
+      <c r="E65" s="117"/>
+      <c r="F65" s="117"/>
+      <c r="G65" s="117"/>
+      <c r="H65" s="118"/>
+      <c r="I65" s="118"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A66" s="117" t="s">
         <v>542</v>
       </c>
-      <c r="B65" s="186"/>
-      <c r="C65" s="186"/>
-      <c r="D65" s="186"/>
-      <c r="E65" s="186"/>
-      <c r="F65" s="186"/>
-      <c r="G65" s="186"/>
-      <c r="H65" s="187"/>
-      <c r="I65" s="187"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="186" t="s">
+      <c r="B66" s="117"/>
+      <c r="C66" s="117"/>
+      <c r="D66" s="117"/>
+      <c r="E66" s="117"/>
+      <c r="F66" s="117"/>
+      <c r="G66" s="117"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="117" t="s">
         <v>543</v>
       </c>
-      <c r="B66" s="186"/>
-      <c r="C66" s="186"/>
-      <c r="D66" s="186"/>
-      <c r="E66" s="186"/>
-      <c r="F66" s="186"/>
-      <c r="G66" s="186"/>
-      <c r="H66" s="187"/>
-      <c r="I66" s="187"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="186" t="s">
+      <c r="B67" s="117"/>
+      <c r="C67" s="117"/>
+      <c r="D67" s="117"/>
+      <c r="E67" s="117"/>
+      <c r="F67" s="117"/>
+      <c r="G67" s="117"/>
+      <c r="H67" s="118"/>
+      <c r="I67" s="118"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A68" s="117" t="s">
         <v>544</v>
       </c>
-      <c r="B67" s="186"/>
-      <c r="C67" s="186"/>
-      <c r="D67" s="186"/>
-      <c r="E67" s="186"/>
-      <c r="F67" s="186"/>
-      <c r="G67" s="186"/>
-      <c r="H67" s="187"/>
-      <c r="I67" s="187"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="186" t="s">
+      <c r="B68" s="117"/>
+      <c r="C68" s="117"/>
+      <c r="D68" s="117"/>
+      <c r="E68" s="117"/>
+      <c r="F68" s="117"/>
+      <c r="G68" s="117"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A69" s="117" t="s">
         <v>545</v>
       </c>
-      <c r="B68" s="186"/>
-      <c r="C68" s="186"/>
-      <c r="D68" s="186"/>
-      <c r="E68" s="186"/>
-      <c r="F68" s="186"/>
-      <c r="G68" s="186"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-    </row>
-    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="186"/>
-      <c r="B69" s="188"/>
-      <c r="C69" s="186"/>
-      <c r="D69" s="188"/>
-      <c r="E69" s="186"/>
-      <c r="F69" s="186"/>
-      <c r="G69" s="186"/>
-      <c r="H69" s="187"/>
-      <c r="I69" s="187"/>
+      <c r="B69" s="117"/>
+      <c r="C69" s="117"/>
+      <c r="D69" s="119"/>
+      <c r="E69" s="117"/>
+      <c r="F69" s="117"/>
+      <c r="G69" s="117"/>
+      <c r="H69" s="118"/>
+      <c r="I69" s="118"/>
     </row>
     <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="188" t="s">
+      <c r="A70" s="117"/>
+      <c r="B70" s="117"/>
+      <c r="C70" s="117"/>
+      <c r="D70" s="117"/>
+      <c r="E70" s="117"/>
+      <c r="F70" s="117"/>
+      <c r="G70" s="117"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A71" s="119" t="s">
         <v>546</v>
       </c>
-      <c r="B70" s="186"/>
-      <c r="C70" s="188"/>
-      <c r="D70" s="186"/>
-      <c r="E70" s="186"/>
-      <c r="F70" s="186"/>
-      <c r="G70" s="186"/>
-      <c r="H70" s="187"/>
-      <c r="I70" s="187"/>
-    </row>
-    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="186" t="s">
+      <c r="B71" s="119"/>
+      <c r="C71" s="119"/>
+      <c r="D71" s="117"/>
+      <c r="E71" s="119"/>
+      <c r="F71" s="117"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="118"/>
+      <c r="I71" s="118"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A72" s="117" t="s">
         <v>547</v>
       </c>
-      <c r="B71" s="186"/>
-      <c r="C71" s="186"/>
-      <c r="D71" s="186"/>
-      <c r="E71" s="188"/>
-      <c r="F71" s="186"/>
-      <c r="G71" s="186"/>
-      <c r="H71" s="187"/>
-      <c r="I71" s="187"/>
-    </row>
-    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="186" t="s">
+      <c r="B72" s="117"/>
+      <c r="C72" s="117"/>
+      <c r="D72" s="117"/>
+      <c r="E72" s="117"/>
+      <c r="F72" s="117"/>
+      <c r="G72" s="117"/>
+      <c r="H72" s="118"/>
+      <c r="I72" s="118"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A73" s="117" t="s">
         <v>548</v>
       </c>
-      <c r="B72" s="186"/>
-      <c r="C72" s="186"/>
-      <c r="D72" s="186"/>
-      <c r="E72" s="186"/>
-      <c r="F72" s="186"/>
-      <c r="G72" s="186"/>
-      <c r="H72" s="187"/>
-      <c r="I72" s="187"/>
-    </row>
-    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="186" t="s">
+      <c r="B73" s="117"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="118"/>
+      <c r="I73" s="118"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A74" s="117" t="s">
         <v>549</v>
       </c>
-      <c r="B73" s="186"/>
-      <c r="C73" s="186"/>
-      <c r="D73" s="186"/>
-      <c r="E73" s="186"/>
-      <c r="F73" s="186"/>
-      <c r="G73" s="186"/>
-      <c r="H73" s="187"/>
-      <c r="I73" s="187"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="186" t="s">
+      <c r="B74" s="117"/>
+      <c r="C74" s="117"/>
+      <c r="D74" s="117"/>
+      <c r="E74" s="117"/>
+      <c r="F74" s="117"/>
+      <c r="G74" s="117"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A75" s="117" t="s">
         <v>550</v>
       </c>
-      <c r="B74" s="186"/>
-      <c r="C74" s="186"/>
-      <c r="D74" s="186"/>
-      <c r="E74" s="186"/>
-      <c r="F74" s="186"/>
-      <c r="G74" s="186"/>
-      <c r="H74" s="187"/>
-      <c r="I74" s="187"/>
-    </row>
-    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="186"/>
-      <c r="B75" s="188"/>
-      <c r="C75" s="186"/>
-      <c r="D75" s="188"/>
-      <c r="E75" s="186"/>
-      <c r="F75" s="186"/>
-      <c r="G75" s="186"/>
-      <c r="H75" s="187"/>
-      <c r="I75" s="187"/>
+      <c r="B75" s="117"/>
+      <c r="C75" s="117"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="117"/>
+      <c r="F75" s="117"/>
+      <c r="G75" s="117"/>
+      <c r="H75" s="118"/>
+      <c r="I75" s="118"/>
     </row>
     <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A76" s="188" t="s">
+      <c r="A76" s="117"/>
+      <c r="B76" s="117"/>
+      <c r="C76" s="117"/>
+      <c r="D76" s="117"/>
+      <c r="E76" s="117"/>
+      <c r="F76" s="117"/>
+      <c r="G76" s="117"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A77" s="119" t="s">
         <v>551</v>
       </c>
-      <c r="B76" s="186"/>
-      <c r="C76" s="188"/>
-      <c r="D76" s="186"/>
-      <c r="E76" s="186"/>
-      <c r="F76" s="186"/>
-      <c r="G76" s="186"/>
-      <c r="H76" s="187"/>
-      <c r="I76" s="187"/>
-    </row>
-    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A77" s="186" t="s">
+      <c r="B77" s="119"/>
+      <c r="C77" s="119"/>
+      <c r="D77" s="117"/>
+      <c r="E77" s="117"/>
+      <c r="F77" s="117"/>
+      <c r="G77" s="117"/>
+      <c r="H77" s="118"/>
+      <c r="I77" s="118"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A78" s="117" t="s">
         <v>552</v>
       </c>
-      <c r="B77" s="186"/>
-      <c r="C77" s="186"/>
-      <c r="D77" s="186"/>
-      <c r="E77" s="186"/>
-      <c r="F77" s="186"/>
-      <c r="G77" s="186"/>
-      <c r="H77" s="187"/>
-      <c r="I77" s="187"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A78" s="186" t="s">
+      <c r="B78" s="117"/>
+      <c r="C78" s="117"/>
+      <c r="D78" s="117"/>
+      <c r="E78" s="117"/>
+      <c r="F78" s="117"/>
+      <c r="G78" s="117"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="117" t="s">
         <v>553</v>
       </c>
-      <c r="B78" s="186"/>
-      <c r="C78" s="186"/>
-      <c r="D78" s="186"/>
-      <c r="E78" s="186"/>
-      <c r="F78" s="186"/>
-      <c r="G78" s="186"/>
-      <c r="H78" s="187"/>
-      <c r="I78" s="187"/>
-    </row>
-    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="186" t="s">
+      <c r="B79" s="117"/>
+      <c r="C79" s="117"/>
+      <c r="D79" s="117"/>
+      <c r="E79" s="117"/>
+      <c r="F79" s="117"/>
+      <c r="G79" s="117"/>
+      <c r="H79" s="118"/>
+      <c r="I79" s="118"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="117" t="s">
         <v>554</v>
       </c>
-      <c r="B79" s="188"/>
-      <c r="C79" s="186"/>
-      <c r="D79" s="186"/>
-      <c r="E79" s="186"/>
-      <c r="F79" s="186"/>
-      <c r="G79" s="186"/>
-      <c r="H79" s="187"/>
-      <c r="I79" s="187"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A80" s="188" t="s">
+      <c r="B80" s="117"/>
+      <c r="C80" s="117"/>
+      <c r="D80" s="117"/>
+      <c r="E80" s="117"/>
+      <c r="F80" s="117"/>
+      <c r="G80" s="117"/>
+      <c r="H80" s="118"/>
+      <c r="I80" s="118"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="119" t="s">
         <v>555</v>
       </c>
-      <c r="B80" s="186"/>
-      <c r="C80" s="188"/>
-      <c r="D80" s="186"/>
-      <c r="E80" s="186"/>
-      <c r="F80" s="186"/>
-      <c r="G80" s="186"/>
-      <c r="H80" s="187"/>
-      <c r="I80" s="187"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="186" t="s">
+      <c r="B81" s="119"/>
+      <c r="C81" s="119"/>
+      <c r="D81" s="117"/>
+      <c r="E81" s="117"/>
+      <c r="F81" s="117"/>
+      <c r="G81" s="117"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="117" t="s">
         <v>556</v>
       </c>
-      <c r="B81" s="186"/>
-      <c r="C81" s="186"/>
-      <c r="D81" s="186"/>
-      <c r="E81" s="186"/>
-      <c r="F81" s="186"/>
-      <c r="G81" s="186"/>
-      <c r="H81" s="187"/>
-      <c r="I81" s="187"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A82" s="186" t="s">
+      <c r="B82" s="117"/>
+      <c r="C82" s="117"/>
+      <c r="D82" s="117"/>
+      <c r="E82" s="117"/>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117"/>
+      <c r="H82" s="118"/>
+      <c r="I82" s="118"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A83" s="117" t="s">
         <v>557</v>
       </c>
-      <c r="B82" s="186"/>
-      <c r="C82" s="186"/>
-      <c r="D82" s="186"/>
-      <c r="E82" s="186"/>
-      <c r="F82" s="186"/>
-      <c r="G82" s="186"/>
-      <c r="H82" s="187"/>
-      <c r="I82" s="187"/>
-    </row>
-    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="186"/>
-      <c r="B83" s="188"/>
-      <c r="C83" s="186"/>
-      <c r="D83" s="186"/>
-      <c r="E83" s="186"/>
-      <c r="F83" s="186"/>
-      <c r="G83" s="186"/>
-      <c r="H83" s="187"/>
-      <c r="I83" s="187"/>
+      <c r="B83" s="117"/>
+      <c r="C83" s="117"/>
+      <c r="D83" s="117"/>
+      <c r="E83" s="117"/>
+      <c r="F83" s="117"/>
+      <c r="G83" s="117"/>
+      <c r="H83" s="118"/>
+      <c r="I83" s="118"/>
     </row>
     <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="188" t="s">
+      <c r="A84" s="117"/>
+      <c r="B84" s="117"/>
+      <c r="C84" s="117"/>
+      <c r="D84" s="117"/>
+      <c r="E84" s="117"/>
+      <c r="F84" s="117"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="118"/>
+      <c r="I84" s="118"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A85" s="119" t="s">
         <v>558</v>
       </c>
-      <c r="B84" s="186"/>
-      <c r="C84" s="188"/>
-      <c r="D84" s="186"/>
-      <c r="E84" s="186"/>
-      <c r="F84" s="186"/>
-      <c r="G84" s="186"/>
-      <c r="H84" s="187"/>
-      <c r="I84" s="187"/>
-    </row>
-    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="186" t="s">
+      <c r="B85" s="119"/>
+      <c r="C85" s="119"/>
+      <c r="D85" s="117"/>
+      <c r="E85" s="117"/>
+      <c r="F85" s="117"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A86" s="117" t="s">
         <v>559</v>
       </c>
-      <c r="B85" s="186"/>
-      <c r="C85" s="186"/>
-      <c r="D85" s="186"/>
-      <c r="E85" s="186"/>
-      <c r="F85" s="186"/>
-      <c r="G85" s="186"/>
-      <c r="H85" s="187"/>
-      <c r="I85" s="187"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="186" t="s">
+      <c r="B86" s="117"/>
+      <c r="C86" s="117"/>
+      <c r="D86" s="117"/>
+      <c r="E86" s="117"/>
+      <c r="F86" s="117"/>
+      <c r="G86" s="117"/>
+      <c r="H86" s="118"/>
+      <c r="I86" s="118"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A87" s="117" t="s">
         <v>560</v>
       </c>
-      <c r="B86" s="186"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="186"/>
-      <c r="E86" s="186"/>
-      <c r="F86" s="186"/>
-      <c r="G86" s="186"/>
-      <c r="H86" s="187"/>
-      <c r="I86" s="187"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A87" s="186" t="s">
+      <c r="B87" s="117"/>
+      <c r="C87" s="117"/>
+      <c r="D87" s="117"/>
+      <c r="E87" s="117"/>
+      <c r="F87" s="117"/>
+      <c r="G87" s="117"/>
+      <c r="H87" s="118"/>
+      <c r="I87" s="118"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="117" t="s">
         <v>561</v>
       </c>
-      <c r="B87" s="186"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="186"/>
-      <c r="E87" s="186"/>
-      <c r="F87" s="186"/>
-      <c r="G87" s="186"/>
-      <c r="H87" s="187"/>
-      <c r="I87" s="187"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A88" s="186" t="s">
+      <c r="B88" s="117"/>
+      <c r="C88" s="117"/>
+      <c r="D88" s="117"/>
+      <c r="E88" s="117"/>
+      <c r="F88" s="117"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="118"/>
+      <c r="I88" s="118"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A89" s="117" t="s">
         <v>562</v>
       </c>
-      <c r="B88" s="186"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="186"/>
-      <c r="E88" s="186"/>
-      <c r="F88" s="186"/>
-      <c r="G88" s="186"/>
-      <c r="H88" s="187"/>
-      <c r="I88" s="187"/>
-    </row>
-    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="186" t="s">
+      <c r="B89" s="117"/>
+      <c r="C89" s="117"/>
+      <c r="D89" s="117"/>
+      <c r="E89" s="117"/>
+      <c r="F89" s="117"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="118"/>
+      <c r="I89" s="118"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A90" s="117" t="s">
         <v>563</v>
       </c>
-      <c r="B89" s="186"/>
-      <c r="C89" s="186"/>
-      <c r="D89" s="186"/>
-      <c r="E89" s="186"/>
-      <c r="F89" s="186"/>
-      <c r="G89" s="186"/>
-      <c r="H89" s="187"/>
-      <c r="I89" s="187"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A90" s="186" t="s">
+      <c r="B90" s="117"/>
+      <c r="C90" s="117"/>
+      <c r="D90" s="117"/>
+      <c r="E90" s="117"/>
+      <c r="F90" s="117"/>
+      <c r="G90" s="117"/>
+      <c r="H90" s="118"/>
+      <c r="I90" s="118"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A91" s="117" t="s">
         <v>564</v>
       </c>
-      <c r="B90" s="186"/>
-      <c r="C90" s="186"/>
-      <c r="D90" s="186"/>
-      <c r="E90" s="186"/>
-      <c r="F90" s="186"/>
-      <c r="G90" s="186"/>
-      <c r="H90" s="187"/>
-      <c r="I90" s="187"/>
-    </row>
-    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A91" s="186" t="s">
+      <c r="B91" s="117"/>
+      <c r="C91" s="117"/>
+      <c r="D91" s="117"/>
+      <c r="E91" s="117"/>
+      <c r="F91" s="117"/>
+      <c r="G91" s="117"/>
+      <c r="H91" s="118"/>
+      <c r="I91" s="118"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A92" s="117" t="s">
         <v>565</v>
       </c>
-      <c r="B91" s="186"/>
-      <c r="C91" s="186"/>
-      <c r="D91" s="186"/>
-      <c r="E91" s="186"/>
-      <c r="F91" s="186"/>
-      <c r="G91" s="186"/>
-      <c r="H91" s="187"/>
-      <c r="I91" s="187"/>
-    </row>
-    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A92" s="186"/>
-      <c r="B92" s="186"/>
-      <c r="C92" s="186"/>
-      <c r="D92" s="186"/>
-      <c r="E92" s="186"/>
-      <c r="F92" s="186"/>
-      <c r="G92" s="186"/>
-      <c r="H92" s="187"/>
-      <c r="I92" s="187"/>
+      <c r="B92" s="117"/>
+      <c r="C92" s="117"/>
+      <c r="D92" s="117"/>
+      <c r="E92" s="117"/>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="118"/>
     </row>
     <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A93" s="186" t="s">
+      <c r="A93" s="117"/>
+      <c r="B93" s="117"/>
+      <c r="C93" s="117"/>
+      <c r="D93" s="117"/>
+      <c r="E93" s="117"/>
+      <c r="F93" s="117"/>
+      <c r="G93" s="117"/>
+      <c r="H93" s="118"/>
+      <c r="I93" s="118"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A94" s="117" t="s">
         <v>566</v>
       </c>
-      <c r="B93" s="186"/>
-      <c r="C93" s="186"/>
-      <c r="D93" s="186"/>
-      <c r="E93" s="186"/>
-      <c r="F93" s="186"/>
-      <c r="G93" s="186"/>
-      <c r="H93" s="187"/>
-      <c r="I93" s="187"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A94" s="186" t="s">
+      <c r="B94" s="117"/>
+      <c r="C94" s="117"/>
+      <c r="D94" s="117"/>
+      <c r="E94" s="117"/>
+      <c r="F94" s="117"/>
+      <c r="G94" s="117"/>
+      <c r="H94" s="118"/>
+      <c r="I94" s="118"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A95" s="117" t="s">
         <v>567</v>
       </c>
-      <c r="B94" s="186"/>
-      <c r="C94" s="186"/>
-      <c r="D94" s="186"/>
-      <c r="E94" s="186"/>
-      <c r="F94" s="186"/>
-      <c r="G94" s="186"/>
-      <c r="H94" s="187"/>
-      <c r="I94" s="187"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A95" s="186" t="s">
+      <c r="B95" s="117"/>
+      <c r="C95" s="117"/>
+      <c r="D95" s="117"/>
+      <c r="E95" s="117"/>
+      <c r="F95" s="117"/>
+      <c r="G95" s="117"/>
+      <c r="H95" s="118"/>
+      <c r="I95" s="118"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A96" s="117" t="s">
         <v>568</v>
       </c>
-      <c r="B95" s="186"/>
-      <c r="C95" s="186"/>
-      <c r="D95" s="186"/>
-      <c r="E95" s="186"/>
-      <c r="F95" s="186"/>
-      <c r="G95" s="186"/>
-      <c r="H95" s="187"/>
-      <c r="I95" s="187"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A96" s="186" t="s">
+      <c r="B96" s="117"/>
+      <c r="C96" s="117"/>
+      <c r="D96" s="117"/>
+      <c r="E96" s="117"/>
+      <c r="F96" s="117"/>
+      <c r="G96" s="117"/>
+      <c r="H96" s="118"/>
+      <c r="I96" s="118"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A97" s="117" t="s">
         <v>569</v>
       </c>
-      <c r="B96" s="188"/>
-      <c r="C96" s="186"/>
-      <c r="D96" s="186"/>
-      <c r="E96" s="186"/>
-      <c r="F96" s="186"/>
-      <c r="G96" s="186"/>
-      <c r="H96" s="187"/>
-      <c r="I96" s="187"/>
-    </row>
-    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A97" s="188" t="s">
+      <c r="B97" s="117"/>
+      <c r="C97" s="117"/>
+      <c r="D97" s="117"/>
+      <c r="E97" s="117"/>
+      <c r="F97" s="117"/>
+      <c r="G97" s="117"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A98" s="119" t="s">
         <v>570</v>
       </c>
-      <c r="B97" s="186"/>
-      <c r="C97" s="186"/>
-      <c r="D97" s="186"/>
-      <c r="E97" s="186"/>
-      <c r="F97" s="186"/>
-      <c r="G97" s="186"/>
-      <c r="H97" s="187"/>
-      <c r="I97" s="187"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A98" s="186" t="s">
+      <c r="B98" s="119"/>
+      <c r="C98" s="117"/>
+      <c r="D98" s="117"/>
+      <c r="E98" s="117"/>
+      <c r="F98" s="117"/>
+      <c r="G98" s="117"/>
+      <c r="H98" s="118"/>
+      <c r="I98" s="118"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A99" s="117" t="s">
         <v>571</v>
       </c>
-      <c r="B98" s="186"/>
-      <c r="C98" s="186"/>
-      <c r="D98" s="186"/>
-      <c r="E98" s="186"/>
-      <c r="F98" s="186"/>
-      <c r="G98" s="186"/>
-      <c r="H98" s="187"/>
-      <c r="I98" s="187"/>
-    </row>
-    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A99" s="186" t="s">
+      <c r="B99" s="117"/>
+      <c r="C99" s="117"/>
+      <c r="D99" s="117"/>
+      <c r="E99" s="117"/>
+      <c r="F99" s="117"/>
+      <c r="G99" s="117"/>
+      <c r="H99" s="118"/>
+      <c r="I99" s="118"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A100" s="117" t="s">
         <v>572</v>
       </c>
-      <c r="B99" s="186"/>
-      <c r="C99" s="186"/>
-      <c r="D99" s="186"/>
-      <c r="E99" s="186"/>
-      <c r="F99" s="186"/>
-      <c r="G99" s="186"/>
-      <c r="H99" s="187"/>
-      <c r="I99" s="187"/>
-    </row>
-    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A100" s="186" t="s">
+      <c r="B100" s="117"/>
+      <c r="C100" s="117"/>
+      <c r="D100" s="117"/>
+      <c r="E100" s="117"/>
+      <c r="F100" s="117"/>
+      <c r="G100" s="117"/>
+      <c r="H100" s="118"/>
+      <c r="I100" s="118"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A101" s="117" t="s">
         <v>573</v>
       </c>
-      <c r="B100" s="186"/>
-      <c r="C100" s="186"/>
-      <c r="D100" s="186"/>
-      <c r="E100" s="186"/>
-      <c r="F100" s="186"/>
-      <c r="G100" s="186"/>
-      <c r="H100" s="187"/>
-      <c r="I100" s="187"/>
-    </row>
-    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A101" s="186" t="s">
+      <c r="B101" s="117"/>
+      <c r="C101" s="117"/>
+      <c r="D101" s="117"/>
+      <c r="E101" s="117"/>
+      <c r="F101" s="117"/>
+      <c r="G101" s="117"/>
+      <c r="H101" s="118"/>
+      <c r="I101" s="118"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A102" s="117" t="s">
         <v>574</v>
       </c>
-      <c r="B101" s="186"/>
-      <c r="C101" s="186"/>
-      <c r="D101" s="186"/>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
-      <c r="G101" s="186"/>
-      <c r="H101" s="187"/>
-      <c r="I101" s="187"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A102" s="186" t="s">
+      <c r="B102" s="117"/>
+      <c r="C102" s="117"/>
+      <c r="D102" s="117"/>
+      <c r="E102" s="117"/>
+      <c r="F102" s="117"/>
+      <c r="G102" s="117"/>
+      <c r="H102" s="118"/>
+      <c r="I102" s="118"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A103" s="117" t="s">
         <v>575</v>
       </c>
-      <c r="B102" s="186"/>
-      <c r="C102" s="186"/>
-      <c r="D102" s="186"/>
-      <c r="E102" s="186"/>
-      <c r="F102" s="186"/>
-      <c r="G102" s="186"/>
-      <c r="H102" s="187"/>
-      <c r="I102" s="187"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A103" s="186" t="s">
+      <c r="B103" s="117"/>
+      <c r="C103" s="117"/>
+      <c r="D103" s="117"/>
+      <c r="E103" s="117"/>
+      <c r="F103" s="117"/>
+      <c r="G103" s="117"/>
+      <c r="H103" s="118"/>
+      <c r="I103" s="118"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A104" s="117" t="s">
         <v>576</v>
       </c>
-      <c r="B103" s="186"/>
-      <c r="C103" s="186"/>
-      <c r="D103" s="186"/>
-      <c r="E103" s="186"/>
-      <c r="F103" s="186"/>
-      <c r="G103" s="186"/>
-      <c r="H103" s="187"/>
-      <c r="I103" s="187"/>
-    </row>
-    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A104" s="186" t="s">
+      <c r="B104" s="117"/>
+      <c r="C104" s="117"/>
+      <c r="D104" s="117"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="117"/>
+      <c r="H104" s="118"/>
+      <c r="I104" s="118"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A105" s="117" t="s">
         <v>577</v>
       </c>
-      <c r="B104" s="186"/>
-      <c r="C104" s="186"/>
-      <c r="D104" s="186"/>
-      <c r="E104" s="186"/>
-      <c r="F104" s="186"/>
-      <c r="G104" s="186"/>
-      <c r="H104" s="187"/>
-      <c r="I104" s="187"/>
-    </row>
-    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A105" s="186" t="s">
+      <c r="B105" s="117"/>
+      <c r="C105" s="117"/>
+      <c r="D105" s="117"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="117"/>
+      <c r="H105" s="118"/>
+      <c r="I105" s="118"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="117" t="s">
         <v>578</v>
       </c>
-      <c r="B105" s="186"/>
-      <c r="C105" s="186"/>
-      <c r="D105" s="186"/>
-      <c r="E105" s="186"/>
-      <c r="F105" s="186"/>
-      <c r="G105" s="186"/>
-      <c r="H105" s="187"/>
-      <c r="I105" s="187"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A106" s="186" t="s">
+      <c r="B106" s="117"/>
+      <c r="C106" s="117"/>
+      <c r="D106" s="117"/>
+      <c r="E106" s="117"/>
+      <c r="F106" s="117"/>
+      <c r="G106" s="117"/>
+      <c r="H106" s="118"/>
+      <c r="I106" s="118"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A107" s="117" t="s">
         <v>579</v>
       </c>
-      <c r="B106" s="186"/>
-      <c r="C106" s="186"/>
-      <c r="D106" s="186"/>
-      <c r="E106" s="186"/>
-      <c r="F106" s="186"/>
-      <c r="G106" s="186"/>
-      <c r="H106" s="187"/>
-      <c r="I106" s="187"/>
-    </row>
-    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A107" s="186" t="s">
+      <c r="B107" s="117"/>
+      <c r="C107" s="117"/>
+      <c r="D107" s="117"/>
+      <c r="E107" s="117"/>
+      <c r="F107" s="117"/>
+      <c r="G107" s="117"/>
+      <c r="H107" s="118"/>
+      <c r="I107" s="118"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A108" s="117" t="s">
         <v>580</v>
       </c>
-      <c r="B107" s="186"/>
-      <c r="C107" s="186"/>
-      <c r="D107" s="186"/>
-      <c r="E107" s="186"/>
-      <c r="F107" s="186"/>
-      <c r="G107" s="186"/>
-      <c r="H107" s="187"/>
-      <c r="I107" s="187"/>
-    </row>
-    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A108" s="186" t="s">
+      <c r="B108" s="117"/>
+      <c r="C108" s="117"/>
+      <c r="E108" s="117"/>
+      <c r="F108" s="117"/>
+      <c r="G108" s="117"/>
+      <c r="H108" s="118"/>
+      <c r="I108" s="118"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A109" s="117" t="s">
         <v>581</v>
       </c>
-      <c r="C108" s="186"/>
-      <c r="E108" s="186"/>
-      <c r="F108" s="186"/>
-      <c r="G108" s="186"/>
-      <c r="H108" s="187"/>
-      <c r="I108" s="187"/>
-    </row>
-    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="E109" s="186"/>
-      <c r="F109" s="186"/>
-      <c r="G109" s="186"/>
-      <c r="H109" s="187"/>
-      <c r="I109" s="187"/>
+      <c r="B109" s="117"/>
+      <c r="C109" s="117"/>
+      <c r="E109" s="117"/>
+      <c r="F109" s="117"/>
+      <c r="G109" s="117"/>
+      <c r="H109" s="118"/>
+      <c r="I109" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5464,7 +5442,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5503,52 +5483,52 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="189" t="s">
+      <c r="B2" s="120" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="206"/>
+      <c r="D2" s="129"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="204" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="191" t="s">
-        <v>589</v>
-      </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="207"/>
+      <c r="B3" s="122" t="s">
+        <v>593</v>
+      </c>
+      <c r="C3" s="128"/>
+      <c r="D3" s="130"/>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="204" t="s">
+      <c r="A4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="191" t="s">
-        <v>582</v>
-      </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="207"/>
+      <c r="B4" s="122" t="s">
+        <v>586</v>
+      </c>
+      <c r="C4" s="128"/>
+      <c r="D4" s="130"/>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="204" t="s">
+      <c r="A5" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="208">
+      <c r="B5" s="131">
         <v>45583</v>
       </c>
-      <c r="C5" s="205"/>
-      <c r="D5" s="207"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="130"/>
     </row>
     <row r="6" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="204" t="s">
+      <c r="A6" s="127" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="205"/>
-      <c r="D6" s="207"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="130"/>
     </row>
     <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
@@ -5616,7 +5596,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="190" t="s">
+      <c r="C13" s="121" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -5872,20 +5852,20 @@
     <row r="3" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="119"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="152"/>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
-      <c r="K3" s="120" t="s">
+      <c r="K3" s="161" t="s">
         <v>41</v>
       </c>
-      <c r="L3" s="119"/>
+      <c r="L3" s="152"/>
       <c r="M3" s="16"/>
       <c r="N3" s="14"/>
       <c r="O3" s="14"/>
@@ -5907,13 +5887,13 @@
       <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="192" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
+      <c r="D4" s="158" t="s">
+        <v>591</v>
+      </c>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="152"/>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
       <c r="K4" s="18" t="s">
@@ -5943,13 +5923,13 @@
       <c r="C5" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="121" t="s">
+      <c r="D5" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="19">
@@ -5979,13 +5959,13 @@
       <c r="C6" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="121" t="s">
+      <c r="D6" s="156" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="119"/>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="152"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
       <c r="K6" s="19">
@@ -6015,13 +5995,13 @@
       <c r="C7" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="121">
+      <c r="D7" s="156">
         <v>1</v>
       </c>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="119"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="151"/>
+      <c r="H7" s="152"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
       <c r="K7" s="19">
@@ -6037,10 +6017,10 @@
       <c r="O7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="P7" s="122" t="s">
+      <c r="P7" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="119"/>
+      <c r="Q7" s="152"/>
       <c r="R7" s="14"/>
       <c r="S7" s="14"/>
       <c r="T7" s="14"/>
@@ -6057,13 +6037,13 @@
       <c r="C8" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="192" t="s">
-        <v>582</v>
-      </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="118"/>
-      <c r="H8" s="119"/>
+      <c r="D8" s="158" t="s">
+        <v>586</v>
+      </c>
+      <c r="E8" s="151"/>
+      <c r="F8" s="151"/>
+      <c r="G8" s="151"/>
+      <c r="H8" s="152"/>
       <c r="I8" s="14"/>
       <c r="J8" s="14"/>
       <c r="K8" s="19">
@@ -6093,13 +6073,13 @@
       <c r="C9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="192" t="s">
-        <v>582</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
+      <c r="D9" s="158" t="s">
+        <v>586</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="151"/>
+      <c r="G9" s="151"/>
+      <c r="H9" s="152"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
       <c r="K9" s="14"/>
@@ -6125,11 +6105,11 @@
       <c r="C10" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="123"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="118"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
+      <c r="D10" s="159"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="151"/>
+      <c r="G10" s="151"/>
+      <c r="H10" s="152"/>
       <c r="I10" s="14"/>
       <c r="J10" s="14"/>
       <c r="K10" s="14"/>
@@ -6152,14 +6132,14 @@
     <row r="11" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="150" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="118"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="151"/>
+      <c r="G11" s="151"/>
+      <c r="H11" s="152"/>
       <c r="I11" s="14"/>
       <c r="J11" s="14"/>
       <c r="K11" s="14"/>
@@ -6356,14 +6336,14 @@
     <row r="17" spans="1:26" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="152"/>
       <c r="I17" s="14"/>
       <c r="J17" s="14"/>
       <c r="K17" s="14"/>
@@ -6386,11 +6366,11 @@
     <row r="18" spans="1:26" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="126" t="s">
+      <c r="C18" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="D18" s="118"/>
-      <c r="E18" s="119"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
       <c r="F18" s="36"/>
       <c r="G18" s="37" t="s">
         <v>65</v>
@@ -6420,11 +6400,11 @@
     <row r="19" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A19" s="14"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="127" t="s">
+      <c r="C19" s="155" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
       <c r="F19" s="38"/>
       <c r="G19" s="39" t="s">
         <v>68</v>
@@ -6454,11 +6434,11 @@
     <row r="20" spans="1:26" ht="13" x14ac:dyDescent="0.3">
       <c r="A20" s="14"/>
       <c r="B20" s="14"/>
-      <c r="C20" s="127" t="s">
+      <c r="C20" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="118"/>
-      <c r="E20" s="119"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
       <c r="F20" s="40"/>
       <c r="G20" s="39" t="s">
         <v>68</v>
@@ -6544,16 +6524,16 @@
     <row r="23" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="14"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="131" t="s">
+      <c r="C23" s="147"/>
+      <c r="D23" s="148" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="132" t="s">
+      <c r="E23" s="149" t="s">
         <v>71</v>
       </c>
-      <c r="F23" s="133"/>
-      <c r="G23" s="133"/>
-      <c r="H23" s="134"/>
+      <c r="F23" s="138"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="139"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
       <c r="K23" s="14"/>
@@ -6576,12 +6556,12 @@
     <row r="24" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="137"/>
+      <c r="C24" s="135"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="141"/>
+      <c r="H24" s="142"/>
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
       <c r="K24" s="14"/>
@@ -6604,12 +6584,12 @@
     <row r="25" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="137"/>
+      <c r="C25" s="135"/>
+      <c r="D25" s="135"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="142"/>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
       <c r="K25" s="14"/>
@@ -6632,12 +6612,12 @@
     <row r="26" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="14"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="140"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="145"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
@@ -6660,18 +6640,18 @@
     <row r="27" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="14"/>
       <c r="B27" s="14"/>
-      <c r="C27" s="141" t="s">
+      <c r="C27" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="141" t="s">
+      <c r="D27" s="134" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="142" t="s">
+      <c r="E27" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="133"/>
-      <c r="G27" s="133"/>
-      <c r="H27" s="134"/>
+      <c r="F27" s="138"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="139"/>
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
       <c r="K27" s="14"/>
@@ -6694,12 +6674,12 @@
     <row r="28" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="135"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="137"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="142"/>
       <c r="I28" s="14"/>
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
@@ -6722,12 +6702,12 @@
     <row r="29" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="14"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="140"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="142"/>
       <c r="I29" s="14"/>
       <c r="J29" s="14"/>
       <c r="K29" s="14"/>
@@ -6750,12 +6730,12 @@
     <row r="30" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="130"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="140"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="145"/>
       <c r="I30" s="14"/>
       <c r="J30" s="14"/>
       <c r="K30" s="14"/>
@@ -6778,18 +6758,18 @@
     <row r="31" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="14"/>
       <c r="B31" s="14"/>
-      <c r="C31" s="141" t="s">
+      <c r="C31" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="141" t="s">
+      <c r="D31" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="E31" s="142" t="s">
+      <c r="E31" s="137" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="133"/>
-      <c r="G31" s="133"/>
-      <c r="H31" s="134"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="139"/>
       <c r="I31" s="14"/>
       <c r="J31" s="14"/>
       <c r="K31" s="14"/>
@@ -6812,12 +6792,12 @@
     <row r="32" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="14"/>
-      <c r="C32" s="129"/>
-      <c r="D32" s="129"/>
-      <c r="E32" s="135"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="137"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="135"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="142"/>
       <c r="I32" s="14"/>
       <c r="J32" s="14"/>
       <c r="K32" s="14"/>
@@ -6840,12 +6820,12 @@
     <row r="33" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
-      <c r="C33" s="129"/>
-      <c r="D33" s="129"/>
-      <c r="E33" s="135"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="137"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="135"/>
+      <c r="E33" s="140"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="142"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
@@ -6868,12 +6848,12 @@
     <row r="34" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="14"/>
-      <c r="C34" s="130"/>
-      <c r="D34" s="130"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="140"/>
+      <c r="C34" s="136"/>
+      <c r="D34" s="136"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="145"/>
       <c r="I34" s="14"/>
       <c r="J34" s="14"/>
       <c r="K34" s="14"/>
@@ -6896,18 +6876,18 @@
     <row r="35" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="14"/>
-      <c r="C35" s="141" t="s">
+      <c r="C35" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D35" s="141" t="s">
+      <c r="D35" s="134" t="s">
         <v>77</v>
       </c>
-      <c r="E35" s="142" t="s">
+      <c r="E35" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="134"/>
+      <c r="F35" s="138"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="139"/>
       <c r="I35" s="14"/>
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
@@ -6930,12 +6910,12 @@
     <row r="36" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="14"/>
-      <c r="C36" s="129"/>
-      <c r="D36" s="129"/>
-      <c r="E36" s="135"/>
-      <c r="F36" s="136"/>
-      <c r="G36" s="136"/>
-      <c r="H36" s="137"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="135"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="142"/>
       <c r="I36" s="14"/>
       <c r="J36" s="14"/>
       <c r="K36" s="14"/>
@@ -6958,12 +6938,12 @@
     <row r="37" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
-      <c r="C37" s="129"/>
-      <c r="D37" s="129"/>
-      <c r="E37" s="135"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="137"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="135"/>
+      <c r="E37" s="140"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="142"/>
       <c r="I37" s="14"/>
       <c r="J37" s="14"/>
       <c r="K37" s="14"/>
@@ -6986,12 +6966,12 @@
     <row r="38" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="14"/>
-      <c r="C38" s="130"/>
-      <c r="D38" s="130"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="140"/>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="143"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
+      <c r="H38" s="145"/>
       <c r="I38" s="14"/>
       <c r="J38" s="14"/>
       <c r="K38" s="14"/>
@@ -7014,18 +6994,18 @@
     <row r="39" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="14"/>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D39" s="141" t="s">
+      <c r="D39" s="134" t="s">
         <v>79</v>
       </c>
-      <c r="E39" s="142" t="s">
+      <c r="E39" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="F39" s="133"/>
-      <c r="G39" s="133"/>
-      <c r="H39" s="134"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="138"/>
+      <c r="H39" s="139"/>
       <c r="I39" s="14"/>
       <c r="J39" s="14"/>
       <c r="K39" s="14"/>
@@ -7048,12 +7028,12 @@
     <row r="40" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="14"/>
-      <c r="C40" s="129"/>
-      <c r="D40" s="129"/>
-      <c r="E40" s="135"/>
-      <c r="F40" s="136"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="137"/>
+      <c r="C40" s="135"/>
+      <c r="D40" s="135"/>
+      <c r="E40" s="140"/>
+      <c r="F40" s="141"/>
+      <c r="G40" s="141"/>
+      <c r="H40" s="142"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="14"/>
@@ -7076,12 +7056,12 @@
     <row r="41" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
       <c r="B41" s="14"/>
-      <c r="C41" s="129"/>
-      <c r="D41" s="129"/>
-      <c r="E41" s="135"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="137"/>
+      <c r="C41" s="135"/>
+      <c r="D41" s="135"/>
+      <c r="E41" s="140"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="142"/>
       <c r="I41" s="14"/>
       <c r="J41" s="14"/>
       <c r="K41" s="14"/>
@@ -7104,12 +7084,12 @@
     <row r="42" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="14"/>
-      <c r="C42" s="130"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="140"/>
+      <c r="C42" s="136"/>
+      <c r="D42" s="136"/>
+      <c r="E42" s="143"/>
+      <c r="F42" s="144"/>
+      <c r="G42" s="144"/>
+      <c r="H42" s="145"/>
       <c r="I42" s="14"/>
       <c r="J42" s="14"/>
       <c r="K42" s="14"/>
@@ -7132,18 +7112,18 @@
     <row r="43" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="14"/>
-      <c r="C43" s="143" t="s">
+      <c r="C43" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="D43" s="141" t="s">
+      <c r="D43" s="134" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="E43" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="134"/>
+      <c r="F43" s="138"/>
+      <c r="G43" s="138"/>
+      <c r="H43" s="139"/>
       <c r="I43" s="14"/>
       <c r="J43" s="14"/>
       <c r="K43" s="14"/>
@@ -7166,12 +7146,12 @@
     <row r="44" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="14"/>
-      <c r="C44" s="129"/>
-      <c r="D44" s="129"/>
-      <c r="E44" s="135"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="137"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="135"/>
+      <c r="E44" s="140"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="142"/>
       <c r="I44" s="14"/>
       <c r="J44" s="14"/>
       <c r="K44" s="14"/>
@@ -7194,12 +7174,12 @@
     <row r="45" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="14"/>
-      <c r="C45" s="129"/>
-      <c r="D45" s="129"/>
-      <c r="E45" s="135"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="137"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="135"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="141"/>
+      <c r="G45" s="141"/>
+      <c r="H45" s="142"/>
       <c r="I45" s="14"/>
       <c r="J45" s="14"/>
       <c r="K45" s="14"/>
@@ -7222,12 +7202,12 @@
     <row r="46" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
       <c r="B46" s="14"/>
-      <c r="C46" s="130"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="138"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="140"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="143"/>
+      <c r="F46" s="144"/>
+      <c r="G46" s="144"/>
+      <c r="H46" s="145"/>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
       <c r="K46" s="14"/>
@@ -7250,18 +7230,18 @@
     <row r="47" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
       <c r="B47" s="14"/>
-      <c r="C47" s="141" t="s">
+      <c r="C47" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D47" s="141" t="s">
+      <c r="D47" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="142" t="s">
+      <c r="E47" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="134"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="138"/>
+      <c r="H47" s="139"/>
       <c r="I47" s="14"/>
       <c r="J47" s="14"/>
       <c r="K47" s="14"/>
@@ -7284,12 +7264,12 @@
     <row r="48" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
       <c r="B48" s="14"/>
-      <c r="C48" s="129"/>
-      <c r="D48" s="129"/>
-      <c r="E48" s="135"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="137"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="135"/>
+      <c r="E48" s="140"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="142"/>
       <c r="I48" s="14"/>
       <c r="J48" s="14"/>
       <c r="K48" s="14"/>
@@ -7312,12 +7292,12 @@
     <row r="49" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
       <c r="B49" s="14"/>
-      <c r="C49" s="129"/>
-      <c r="D49" s="129"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="137"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="135"/>
+      <c r="E49" s="140"/>
+      <c r="F49" s="141"/>
+      <c r="G49" s="141"/>
+      <c r="H49" s="142"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14"/>
       <c r="K49" s="14"/>
@@ -7340,12 +7320,12 @@
     <row r="50" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="14"/>
-      <c r="C50" s="130"/>
-      <c r="D50" s="130"/>
-      <c r="E50" s="138"/>
-      <c r="F50" s="139"/>
-      <c r="G50" s="139"/>
-      <c r="H50" s="140"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="143"/>
+      <c r="F50" s="144"/>
+      <c r="G50" s="144"/>
+      <c r="H50" s="145"/>
       <c r="I50" s="14"/>
       <c r="J50" s="14"/>
       <c r="K50" s="14"/>
@@ -7368,18 +7348,18 @@
     <row r="51" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="14"/>
-      <c r="C51" s="141" t="s">
+      <c r="C51" s="134" t="s">
         <v>72</v>
       </c>
-      <c r="D51" s="141" t="s">
+      <c r="D51" s="134" t="s">
         <v>85</v>
       </c>
-      <c r="E51" s="142" t="s">
+      <c r="E51" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="134"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="139"/>
       <c r="I51" s="14"/>
       <c r="J51" s="14"/>
       <c r="K51" s="14"/>
@@ -7402,12 +7382,12 @@
     <row r="52" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
-      <c r="E52" s="135"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="137"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="135"/>
+      <c r="E52" s="140"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="142"/>
       <c r="I52" s="14"/>
       <c r="J52" s="14"/>
       <c r="K52" s="14"/>
@@ -7430,12 +7410,12 @@
     <row r="53" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53" s="14"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="135"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="137"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="135"/>
+      <c r="E53" s="140"/>
+      <c r="F53" s="141"/>
+      <c r="G53" s="141"/>
+      <c r="H53" s="142"/>
       <c r="I53" s="14"/>
       <c r="J53" s="14"/>
       <c r="K53" s="14"/>
@@ -7458,12 +7438,12 @@
     <row r="54" spans="1:26" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
       <c r="B54" s="14"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="138"/>
-      <c r="F54" s="139"/>
-      <c r="G54" s="139"/>
-      <c r="H54" s="140"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="143"/>
+      <c r="F54" s="144"/>
+      <c r="G54" s="144"/>
+      <c r="H54" s="145"/>
       <c r="I54" s="14"/>
       <c r="J54" s="14"/>
       <c r="K54" s="14"/>
@@ -33973,6 +33953,36 @@
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:H26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:H30"/>
+    <mergeCell ref="D39:D42"/>
+    <mergeCell ref="E39:H42"/>
+    <mergeCell ref="C31:C34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="E31:H34"/>
+    <mergeCell ref="C35:C38"/>
+    <mergeCell ref="D35:D38"/>
+    <mergeCell ref="E35:H38"/>
+    <mergeCell ref="C39:C42"/>
     <mergeCell ref="D51:D54"/>
     <mergeCell ref="E51:H54"/>
     <mergeCell ref="C43:C46"/>
@@ -33982,36 +33992,6 @@
     <mergeCell ref="D47:D50"/>
     <mergeCell ref="E47:H50"/>
     <mergeCell ref="C51:C54"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="E39:H42"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="E31:H34"/>
-    <mergeCell ref="C35:C38"/>
-    <mergeCell ref="D35:D38"/>
-    <mergeCell ref="E35:H38"/>
-    <mergeCell ref="C39:C42"/>
-    <mergeCell ref="C23:C26"/>
-    <mergeCell ref="D23:D26"/>
-    <mergeCell ref="E23:H26"/>
-    <mergeCell ref="C27:C30"/>
-    <mergeCell ref="D27:D30"/>
-    <mergeCell ref="E27:H30"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="D6:H6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -34025,7 +34005,7 @@
   </sheetPr>
   <dimension ref="A3:D266"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E41" sqref="E41:E43"/>
     </sheetView>
   </sheetViews>
@@ -34037,1397 +34017,1397 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="144" t="s">
+      <c r="B3" s="170" t="s">
         <v>383</v>
       </c>
-      <c r="C3" s="145"/>
+      <c r="C3" s="171"/>
     </row>
     <row r="4" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="146"/>
-      <c r="C4" s="147"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="164"/>
     </row>
     <row r="5" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="146"/>
-      <c r="C5" s="147"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="164"/>
     </row>
     <row r="6" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B6" s="146"/>
-      <c r="C6" s="147"/>
+      <c r="B6" s="172"/>
+      <c r="C6" s="164"/>
     </row>
     <row r="7" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="148" t="s">
+      <c r="B7" s="174" t="s">
         <v>384</v>
       </c>
-      <c r="C7" s="147"/>
+      <c r="C7" s="164"/>
     </row>
     <row r="8" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B8" s="146"/>
-      <c r="C8" s="147"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="164"/>
     </row>
     <row r="9" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="148" t="s">
+      <c r="B9" s="174" t="s">
         <v>385</v>
       </c>
-      <c r="C9" s="147"/>
+      <c r="C9" s="164"/>
     </row>
     <row r="10" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="146"/>
-      <c r="C10" s="147"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="164"/>
     </row>
     <row r="11" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="148" t="s">
+      <c r="B11" s="174" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="147"/>
+      <c r="C11" s="164"/>
     </row>
     <row r="12" spans="2:3" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="193" t="s">
-        <v>585</v>
-      </c>
-      <c r="C12" s="147"/>
+      <c r="B12" s="175" t="s">
+        <v>589</v>
+      </c>
+      <c r="C12" s="164"/>
     </row>
     <row r="13" spans="2:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="148" t="s">
+      <c r="B13" s="174" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="147"/>
+      <c r="C13" s="164"/>
     </row>
     <row r="14" spans="2:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="148" t="s">
+      <c r="B14" s="174" t="s">
         <v>388</v>
       </c>
-      <c r="C14" s="147"/>
+      <c r="C14" s="164"/>
     </row>
     <row r="15" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="148" t="s">
+      <c r="B15" s="174" t="s">
         <v>389</v>
       </c>
-      <c r="C15" s="147"/>
+      <c r="C15" s="164"/>
     </row>
     <row r="16" spans="2:3" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="148" t="s">
+      <c r="B16" s="174" t="s">
         <v>390</v>
       </c>
-      <c r="C16" s="147"/>
+      <c r="C16" s="164"/>
     </row>
     <row r="17" spans="2:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="194" t="s">
+      <c r="B17" s="173" t="s">
         <v>391</v>
       </c>
-      <c r="C17" s="147"/>
+      <c r="C17" s="164"/>
     </row>
     <row r="18" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="148" t="s">
+      <c r="B18" s="174" t="s">
         <v>392</v>
       </c>
-      <c r="C18" s="147"/>
+      <c r="C18" s="164"/>
     </row>
     <row r="19" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="195" t="s">
-        <v>583</v>
-      </c>
-      <c r="C19" s="149"/>
+      <c r="B19" s="167" t="s">
+        <v>587</v>
+      </c>
+      <c r="C19" s="168"/>
     </row>
     <row r="22" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B22" s="144" t="s">
+      <c r="B22" s="170" t="s">
         <v>383</v>
       </c>
-      <c r="C22" s="145"/>
+      <c r="C22" s="171"/>
     </row>
     <row r="23" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B23" s="146"/>
-      <c r="C23" s="147"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="164"/>
     </row>
     <row r="24" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="164"/>
     </row>
     <row r="25" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B25" s="146"/>
-      <c r="C25" s="147"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="164"/>
     </row>
     <row r="26" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B26" s="150" t="s">
+      <c r="B26" s="163" t="s">
         <v>393</v>
       </c>
-      <c r="C26" s="147"/>
+      <c r="C26" s="164"/>
     </row>
     <row r="27" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B27" s="146"/>
-      <c r="C27" s="147"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="164"/>
     </row>
     <row r="28" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B28" s="150" t="s">
+      <c r="B28" s="163" t="s">
         <v>394</v>
       </c>
-      <c r="C28" s="147"/>
+      <c r="C28" s="164"/>
     </row>
     <row r="29" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="146"/>
-      <c r="C29" s="147"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="164"/>
     </row>
     <row r="30" spans="2:3" ht="13" x14ac:dyDescent="0.25">
-      <c r="B30" s="150" t="s">
+      <c r="B30" s="163" t="s">
         <v>386</v>
       </c>
-      <c r="C30" s="147"/>
+      <c r="C30" s="164"/>
     </row>
     <row r="31" spans="2:3" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="196" t="s">
-        <v>585</v>
-      </c>
-      <c r="C31" s="147"/>
+      <c r="B31" s="165" t="s">
+        <v>589</v>
+      </c>
+      <c r="C31" s="164"/>
     </row>
     <row r="32" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="150" t="s">
+      <c r="B32" s="163" t="s">
         <v>395</v>
       </c>
-      <c r="C32" s="147"/>
+      <c r="C32" s="164"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="150" t="s">
+      <c r="B33" s="163" t="s">
         <v>396</v>
       </c>
-      <c r="C33" s="147"/>
+      <c r="C33" s="164"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="150" t="s">
+      <c r="B34" s="163" t="s">
         <v>397</v>
       </c>
-      <c r="C34" s="147"/>
+      <c r="C34" s="164"/>
     </row>
     <row r="35" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="150" t="s">
+      <c r="B35" s="163" t="s">
         <v>398</v>
       </c>
-      <c r="C35" s="147"/>
+      <c r="C35" s="164"/>
     </row>
     <row r="36" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="197" t="s">
+      <c r="B36" s="169" t="s">
         <v>399</v>
       </c>
-      <c r="C36" s="147"/>
+      <c r="C36" s="164"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="163" t="s">
         <v>400</v>
       </c>
-      <c r="C37" s="147"/>
+      <c r="C37" s="164"/>
     </row>
     <row r="38" spans="2:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="195" t="s">
-        <v>583</v>
-      </c>
-      <c r="C38" s="149"/>
+      <c r="B38" s="167" t="s">
+        <v>587</v>
+      </c>
+      <c r="C38" s="168"/>
     </row>
     <row r="41" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B41" s="144" t="s">
+      <c r="B41" s="170" t="s">
         <v>383</v>
       </c>
-      <c r="C41" s="145"/>
+      <c r="C41" s="171"/>
     </row>
     <row r="42" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B42" s="146"/>
-      <c r="C42" s="147"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="164"/>
     </row>
     <row r="43" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B43" s="146"/>
-      <c r="C43" s="147"/>
+      <c r="B43" s="172"/>
+      <c r="C43" s="164"/>
     </row>
     <row r="44" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B44" s="146"/>
-      <c r="C44" s="147"/>
+      <c r="B44" s="172"/>
+      <c r="C44" s="164"/>
     </row>
     <row r="45" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B45" s="150" t="s">
+      <c r="B45" s="163" t="s">
         <v>401</v>
       </c>
-      <c r="C45" s="147"/>
+      <c r="C45" s="164"/>
     </row>
     <row r="46" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B46" s="146"/>
-      <c r="C46" s="147"/>
+      <c r="B46" s="172"/>
+      <c r="C46" s="164"/>
     </row>
     <row r="47" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="163" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="147"/>
+      <c r="C47" s="164"/>
     </row>
     <row r="48" spans="2:3" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B48" s="146"/>
-      <c r="C48" s="147"/>
+      <c r="B48" s="172"/>
+      <c r="C48" s="164"/>
     </row>
     <row r="49" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B49" s="150" t="s">
+      <c r="B49" s="163" t="s">
         <v>386</v>
       </c>
-      <c r="C49" s="147"/>
+      <c r="C49" s="164"/>
     </row>
     <row r="50" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="196" t="s">
-        <v>586</v>
-      </c>
-      <c r="C50" s="147"/>
+      <c r="B50" s="165" t="s">
+        <v>590</v>
+      </c>
+      <c r="C50" s="164"/>
     </row>
     <row r="51" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B51" s="150" t="s">
+      <c r="B51" s="163" t="s">
         <v>403</v>
       </c>
-      <c r="C51" s="147"/>
+      <c r="C51" s="164"/>
     </row>
     <row r="52" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B52" s="150" t="s">
+      <c r="B52" s="163" t="s">
         <v>404</v>
       </c>
-      <c r="C52" s="147"/>
+      <c r="C52" s="164"/>
     </row>
     <row r="53" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="150" t="s">
+      <c r="B53" s="163" t="s">
         <v>405</v>
       </c>
-      <c r="C53" s="147"/>
+      <c r="C53" s="164"/>
     </row>
     <row r="54" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="150" t="s">
+      <c r="B54" s="163" t="s">
         <v>406</v>
       </c>
-      <c r="C54" s="147"/>
+      <c r="C54" s="164"/>
     </row>
     <row r="55" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="198" t="s">
+      <c r="B55" s="166" t="s">
         <v>407</v>
       </c>
-      <c r="C55" s="147"/>
+      <c r="C55" s="164"/>
     </row>
     <row r="56" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B56" s="150" t="s">
+      <c r="B56" s="163" t="s">
         <v>408</v>
       </c>
-      <c r="C56" s="147"/>
+      <c r="C56" s="164"/>
     </row>
     <row r="57" spans="1:4" ht="13" x14ac:dyDescent="0.25">
-      <c r="B57" s="195" t="s">
-        <v>584</v>
-      </c>
-      <c r="C57" s="149"/>
+      <c r="B57" s="167" t="s">
+        <v>588</v>
+      </c>
+      <c r="C57" s="168"/>
     </row>
     <row r="60" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="61" spans="1:4" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="199"/>
-      <c r="B62" s="200"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="162"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
     </row>
     <row r="63" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="199"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
+      <c r="A63" s="123"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
     </row>
     <row r="64" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="199"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
+      <c r="A64" s="123"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
     </row>
     <row r="65" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="199"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
     </row>
     <row r="66" spans="1:4" ht="12.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="199"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
+      <c r="A66" s="123"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
     </row>
     <row r="67" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="199"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
+      <c r="A67" s="123"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="141"/>
+      <c r="D67" s="141"/>
     </row>
     <row r="68" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="199"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
+      <c r="A68" s="123"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="141"/>
+      <c r="D68" s="141"/>
     </row>
     <row r="69" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="199"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
+      <c r="A69" s="123"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="141"/>
+      <c r="D69" s="141"/>
     </row>
     <row r="70" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="199"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="136"/>
+      <c r="A70" s="123"/>
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
     </row>
     <row r="71" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="199"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
+      <c r="A71" s="123"/>
+      <c r="B71" s="141"/>
+      <c r="C71" s="141"/>
+      <c r="D71" s="141"/>
     </row>
     <row r="72" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="199"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
+      <c r="A72" s="123"/>
+      <c r="B72" s="141"/>
+      <c r="C72" s="141"/>
+      <c r="D72" s="141"/>
     </row>
     <row r="73" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="199"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
+      <c r="A73" s="123"/>
+      <c r="B73" s="141"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="141"/>
     </row>
     <row r="74" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="199"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="141"/>
+      <c r="C74" s="141"/>
+      <c r="D74" s="141"/>
     </row>
     <row r="75" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="199"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="141"/>
+      <c r="C75" s="141"/>
+      <c r="D75" s="141"/>
     </row>
     <row r="76" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="199"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
+      <c r="A76" s="123"/>
+      <c r="B76" s="141"/>
+      <c r="C76" s="141"/>
+      <c r="D76" s="141"/>
     </row>
     <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="199"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="141"/>
+      <c r="C77" s="141"/>
+      <c r="D77" s="141"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="199"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="141"/>
+      <c r="C78" s="141"/>
+      <c r="D78" s="141"/>
     </row>
     <row r="79" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="199"/>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="141"/>
+      <c r="C79" s="141"/>
+      <c r="D79" s="141"/>
     </row>
     <row r="80" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="199"/>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="141"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
     </row>
     <row r="81" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="199"/>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="141"/>
+      <c r="C81" s="141"/>
+      <c r="D81" s="141"/>
     </row>
     <row r="82" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A82" s="199"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="141"/>
+      <c r="C82" s="141"/>
+      <c r="D82" s="141"/>
     </row>
     <row r="83" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="199"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
+      <c r="A83" s="123"/>
+      <c r="B83" s="141"/>
+      <c r="C83" s="141"/>
+      <c r="D83" s="141"/>
     </row>
     <row r="84" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="199"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
+      <c r="A84" s="123"/>
+      <c r="B84" s="141"/>
+      <c r="C84" s="141"/>
+      <c r="D84" s="141"/>
     </row>
     <row r="85" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="199"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="141"/>
+      <c r="C85" s="141"/>
+      <c r="D85" s="141"/>
     </row>
     <row r="86" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="199"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="141"/>
+      <c r="C86" s="141"/>
+      <c r="D86" s="141"/>
     </row>
     <row r="87" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="199"/>
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="141"/>
+      <c r="C87" s="141"/>
+      <c r="D87" s="141"/>
     </row>
     <row r="88" spans="1:4" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="199"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="141"/>
+      <c r="C88" s="141"/>
+      <c r="D88" s="141"/>
     </row>
     <row r="89" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A89" s="199"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="141"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
     </row>
     <row r="90" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="199"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
+      <c r="A90" s="123"/>
+      <c r="B90" s="141"/>
+      <c r="C90" s="141"/>
+      <c r="D90" s="141"/>
     </row>
     <row r="91" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A91" s="199"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136"/>
+      <c r="A91" s="123"/>
+      <c r="B91" s="141"/>
+      <c r="C91" s="141"/>
+      <c r="D91" s="141"/>
     </row>
     <row r="92" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A92" s="199"/>
-      <c r="B92" s="136"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
+      <c r="A92" s="123"/>
+      <c r="B92" s="141"/>
+      <c r="C92" s="141"/>
+      <c r="D92" s="141"/>
     </row>
     <row r="93" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="199"/>
-      <c r="B93" s="136"/>
-      <c r="C93" s="136"/>
-      <c r="D93" s="136"/>
+      <c r="A93" s="123"/>
+      <c r="B93" s="141"/>
+      <c r="C93" s="141"/>
+      <c r="D93" s="141"/>
     </row>
     <row r="94" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="199"/>
-      <c r="B94" s="136"/>
-      <c r="C94" s="136"/>
-      <c r="D94" s="136"/>
+      <c r="A94" s="123"/>
+      <c r="B94" s="141"/>
+      <c r="C94" s="141"/>
+      <c r="D94" s="141"/>
     </row>
     <row r="95" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="199"/>
-      <c r="B95" s="136"/>
-      <c r="C95" s="136"/>
-      <c r="D95" s="136"/>
+      <c r="A95" s="123"/>
+      <c r="B95" s="141"/>
+      <c r="C95" s="141"/>
+      <c r="D95" s="141"/>
     </row>
     <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="199"/>
-      <c r="B96" s="136"/>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
+      <c r="A96" s="123"/>
+      <c r="B96" s="141"/>
+      <c r="C96" s="141"/>
+      <c r="D96" s="141"/>
     </row>
     <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="199"/>
-      <c r="B97" s="136"/>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136"/>
+      <c r="A97" s="123"/>
+      <c r="B97" s="141"/>
+      <c r="C97" s="141"/>
+      <c r="D97" s="141"/>
     </row>
     <row r="98" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="199"/>
-      <c r="B98" s="136"/>
-      <c r="C98" s="136"/>
-      <c r="D98" s="136"/>
+      <c r="A98" s="123"/>
+      <c r="B98" s="141"/>
+      <c r="C98" s="141"/>
+      <c r="D98" s="141"/>
     </row>
     <row r="99" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A99" s="199"/>
-      <c r="B99" s="136"/>
-      <c r="C99" s="136"/>
-      <c r="D99" s="136"/>
+      <c r="A99" s="123"/>
+      <c r="B99" s="141"/>
+      <c r="C99" s="141"/>
+      <c r="D99" s="141"/>
     </row>
     <row r="100" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A100" s="199"/>
-      <c r="B100" s="136"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="136"/>
+      <c r="A100" s="123"/>
+      <c r="B100" s="141"/>
+      <c r="C100" s="141"/>
+      <c r="D100" s="141"/>
     </row>
     <row r="101" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A101" s="199"/>
-      <c r="B101" s="136"/>
-      <c r="C101" s="136"/>
-      <c r="D101" s="136"/>
+      <c r="A101" s="123"/>
+      <c r="B101" s="141"/>
+      <c r="C101" s="141"/>
+      <c r="D101" s="141"/>
     </row>
     <row r="102" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A102" s="199"/>
-      <c r="B102" s="136"/>
-      <c r="C102" s="136"/>
-      <c r="D102" s="136"/>
+      <c r="A102" s="123"/>
+      <c r="B102" s="141"/>
+      <c r="C102" s="141"/>
+      <c r="D102" s="141"/>
     </row>
     <row r="103" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A103" s="199"/>
-      <c r="B103" s="136"/>
-      <c r="C103" s="136"/>
-      <c r="D103" s="136"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="141"/>
+      <c r="C103" s="141"/>
+      <c r="D103" s="141"/>
     </row>
     <row r="104" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="199"/>
-      <c r="B104" s="136"/>
-      <c r="C104" s="136"/>
-      <c r="D104" s="136"/>
+      <c r="A104" s="123"/>
+      <c r="B104" s="141"/>
+      <c r="C104" s="141"/>
+      <c r="D104" s="141"/>
     </row>
     <row r="105" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A105" s="199"/>
-      <c r="B105" s="136"/>
-      <c r="C105" s="136"/>
-      <c r="D105" s="136"/>
+      <c r="A105" s="123"/>
+      <c r="B105" s="141"/>
+      <c r="C105" s="141"/>
+      <c r="D105" s="141"/>
     </row>
     <row r="106" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="199"/>
-      <c r="B106" s="136"/>
-      <c r="C106" s="136"/>
-      <c r="D106" s="136"/>
+      <c r="A106" s="123"/>
+      <c r="B106" s="141"/>
+      <c r="C106" s="141"/>
+      <c r="D106" s="141"/>
     </row>
     <row r="107" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="199"/>
-      <c r="B107" s="136"/>
-      <c r="C107" s="136"/>
-      <c r="D107" s="136"/>
+      <c r="A107" s="123"/>
+      <c r="B107" s="141"/>
+      <c r="C107" s="141"/>
+      <c r="D107" s="141"/>
     </row>
     <row r="108" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="199"/>
-      <c r="B108" s="136"/>
-      <c r="C108" s="136"/>
-      <c r="D108" s="136"/>
+      <c r="A108" s="123"/>
+      <c r="B108" s="141"/>
+      <c r="C108" s="141"/>
+      <c r="D108" s="141"/>
     </row>
     <row r="109" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A109" s="199"/>
-      <c r="B109" s="136"/>
-      <c r="C109" s="136"/>
-      <c r="D109" s="136"/>
+      <c r="A109" s="123"/>
+      <c r="B109" s="141"/>
+      <c r="C109" s="141"/>
+      <c r="D109" s="141"/>
     </row>
     <row r="110" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A110" s="199"/>
-      <c r="B110" s="136"/>
-      <c r="C110" s="136"/>
-      <c r="D110" s="136"/>
+      <c r="A110" s="123"/>
+      <c r="B110" s="141"/>
+      <c r="C110" s="141"/>
+      <c r="D110" s="141"/>
     </row>
     <row r="111" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="199"/>
-      <c r="B111" s="136"/>
-      <c r="C111" s="136"/>
-      <c r="D111" s="136"/>
+      <c r="A111" s="123"/>
+      <c r="B111" s="141"/>
+      <c r="C111" s="141"/>
+      <c r="D111" s="141"/>
     </row>
     <row r="112" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="199"/>
-      <c r="B112" s="136"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="136"/>
+      <c r="A112" s="123"/>
+      <c r="B112" s="141"/>
+      <c r="C112" s="141"/>
+      <c r="D112" s="141"/>
     </row>
     <row r="113" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="199"/>
-      <c r="B113" s="136"/>
-      <c r="C113" s="136"/>
-      <c r="D113" s="136"/>
+      <c r="A113" s="123"/>
+      <c r="B113" s="141"/>
+      <c r="C113" s="141"/>
+      <c r="D113" s="141"/>
     </row>
     <row r="114" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A114" s="199"/>
-      <c r="B114" s="136"/>
-      <c r="C114" s="136"/>
-      <c r="D114" s="136"/>
+      <c r="A114" s="123"/>
+      <c r="B114" s="141"/>
+      <c r="C114" s="141"/>
+      <c r="D114" s="141"/>
     </row>
     <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="199"/>
-      <c r="B115" s="136"/>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
+      <c r="A115" s="123"/>
+      <c r="B115" s="141"/>
+      <c r="C115" s="141"/>
+      <c r="D115" s="141"/>
     </row>
     <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="199"/>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
+      <c r="A116" s="123"/>
+      <c r="B116" s="141"/>
+      <c r="C116" s="141"/>
+      <c r="D116" s="141"/>
     </row>
     <row r="117" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A117" s="199"/>
-      <c r="B117" s="136"/>
-      <c r="C117" s="136"/>
-      <c r="D117" s="136"/>
+      <c r="A117" s="123"/>
+      <c r="B117" s="141"/>
+      <c r="C117" s="141"/>
+      <c r="D117" s="141"/>
     </row>
     <row r="118" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="199"/>
-      <c r="B118" s="136"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
+      <c r="A118" s="123"/>
+      <c r="B118" s="141"/>
+      <c r="C118" s="141"/>
+      <c r="D118" s="141"/>
     </row>
     <row r="119" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="199"/>
-      <c r="B119" s="136"/>
-      <c r="C119" s="136"/>
-      <c r="D119" s="136"/>
+      <c r="A119" s="123"/>
+      <c r="B119" s="141"/>
+      <c r="C119" s="141"/>
+      <c r="D119" s="141"/>
     </row>
     <row r="120" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A120" s="199"/>
-      <c r="B120" s="136"/>
-      <c r="C120" s="136"/>
-      <c r="D120" s="136"/>
+      <c r="A120" s="123"/>
+      <c r="B120" s="141"/>
+      <c r="C120" s="141"/>
+      <c r="D120" s="141"/>
     </row>
     <row r="121" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A121" s="199"/>
-      <c r="B121" s="136"/>
-      <c r="C121" s="136"/>
-      <c r="D121" s="136"/>
+      <c r="A121" s="123"/>
+      <c r="B121" s="141"/>
+      <c r="C121" s="141"/>
+      <c r="D121" s="141"/>
     </row>
     <row r="122" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A122" s="199"/>
-      <c r="B122" s="136"/>
-      <c r="C122" s="136"/>
-      <c r="D122" s="136"/>
+      <c r="A122" s="123"/>
+      <c r="B122" s="141"/>
+      <c r="C122" s="141"/>
+      <c r="D122" s="141"/>
     </row>
     <row r="123" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="199"/>
-      <c r="B123" s="136"/>
-      <c r="C123" s="136"/>
-      <c r="D123" s="136"/>
+      <c r="A123" s="123"/>
+      <c r="B123" s="141"/>
+      <c r="C123" s="141"/>
+      <c r="D123" s="141"/>
     </row>
     <row r="124" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="199"/>
-      <c r="B124" s="136"/>
-      <c r="C124" s="136"/>
-      <c r="D124" s="136"/>
+      <c r="A124" s="123"/>
+      <c r="B124" s="141"/>
+      <c r="C124" s="141"/>
+      <c r="D124" s="141"/>
     </row>
     <row r="125" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A125" s="199"/>
-      <c r="B125" s="136"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
+      <c r="A125" s="123"/>
+      <c r="B125" s="141"/>
+      <c r="C125" s="141"/>
+      <c r="D125" s="141"/>
     </row>
     <row r="126" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="199"/>
-      <c r="B126" s="136"/>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
+      <c r="A126" s="123"/>
+      <c r="B126" s="141"/>
+      <c r="C126" s="141"/>
+      <c r="D126" s="141"/>
     </row>
     <row r="127" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="199"/>
-      <c r="B127" s="136"/>
-      <c r="C127" s="136"/>
-      <c r="D127" s="136"/>
+      <c r="A127" s="123"/>
+      <c r="B127" s="141"/>
+      <c r="C127" s="141"/>
+      <c r="D127" s="141"/>
     </row>
     <row r="128" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A128" s="199"/>
-      <c r="B128" s="136"/>
-      <c r="C128" s="136"/>
-      <c r="D128" s="136"/>
+      <c r="A128" s="123"/>
+      <c r="B128" s="141"/>
+      <c r="C128" s="141"/>
+      <c r="D128" s="141"/>
     </row>
     <row r="129" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A129" s="199"/>
-      <c r="B129" s="136"/>
-      <c r="C129" s="136"/>
-      <c r="D129" s="136"/>
+      <c r="A129" s="123"/>
+      <c r="B129" s="141"/>
+      <c r="C129" s="141"/>
+      <c r="D129" s="141"/>
     </row>
     <row r="130" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A130" s="199"/>
-      <c r="B130" s="136"/>
-      <c r="C130" s="136"/>
-      <c r="D130" s="136"/>
+      <c r="A130" s="123"/>
+      <c r="B130" s="141"/>
+      <c r="C130" s="141"/>
+      <c r="D130" s="141"/>
     </row>
     <row r="131" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A131" s="199"/>
-      <c r="B131" s="136"/>
-      <c r="C131" s="136"/>
-      <c r="D131" s="136"/>
+      <c r="A131" s="123"/>
+      <c r="B131" s="141"/>
+      <c r="C131" s="141"/>
+      <c r="D131" s="141"/>
     </row>
     <row r="132" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A132" s="199"/>
-      <c r="B132" s="136"/>
-      <c r="C132" s="136"/>
-      <c r="D132" s="136"/>
+      <c r="A132" s="123"/>
+      <c r="B132" s="141"/>
+      <c r="C132" s="141"/>
+      <c r="D132" s="141"/>
     </row>
     <row r="133" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="199"/>
-      <c r="B133" s="136"/>
-      <c r="C133" s="136"/>
-      <c r="D133" s="136"/>
+      <c r="A133" s="123"/>
+      <c r="B133" s="141"/>
+      <c r="C133" s="141"/>
+      <c r="D133" s="141"/>
     </row>
     <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="199"/>
-      <c r="B134" s="136"/>
-      <c r="C134" s="136"/>
-      <c r="D134" s="136"/>
+      <c r="A134" s="123"/>
+      <c r="B134" s="141"/>
+      <c r="C134" s="141"/>
+      <c r="D134" s="141"/>
     </row>
     <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="199"/>
-      <c r="B135" s="136"/>
-      <c r="C135" s="136"/>
-      <c r="D135" s="136"/>
+      <c r="A135" s="123"/>
+      <c r="B135" s="141"/>
+      <c r="C135" s="141"/>
+      <c r="D135" s="141"/>
     </row>
     <row r="136" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A136" s="199"/>
-      <c r="B136" s="136"/>
-      <c r="C136" s="136"/>
-      <c r="D136" s="136"/>
+      <c r="A136" s="123"/>
+      <c r="B136" s="141"/>
+      <c r="C136" s="141"/>
+      <c r="D136" s="141"/>
     </row>
     <row r="137" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A137" s="199"/>
-      <c r="B137" s="136"/>
-      <c r="C137" s="136"/>
-      <c r="D137" s="136"/>
+      <c r="A137" s="123"/>
+      <c r="B137" s="141"/>
+      <c r="C137" s="141"/>
+      <c r="D137" s="141"/>
     </row>
     <row r="138" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A138" s="199"/>
-      <c r="B138" s="136"/>
-      <c r="C138" s="136"/>
-      <c r="D138" s="136"/>
+      <c r="A138" s="123"/>
+      <c r="B138" s="141"/>
+      <c r="C138" s="141"/>
+      <c r="D138" s="141"/>
     </row>
     <row r="139" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A139" s="199"/>
-      <c r="B139" s="136"/>
-      <c r="C139" s="136"/>
-      <c r="D139" s="136"/>
+      <c r="A139" s="123"/>
+      <c r="B139" s="141"/>
+      <c r="C139" s="141"/>
+      <c r="D139" s="141"/>
     </row>
     <row r="140" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A140" s="199"/>
-      <c r="B140" s="136"/>
-      <c r="C140" s="136"/>
-      <c r="D140" s="136"/>
+      <c r="A140" s="123"/>
+      <c r="B140" s="141"/>
+      <c r="C140" s="141"/>
+      <c r="D140" s="141"/>
     </row>
     <row r="141" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A141" s="199"/>
-      <c r="B141" s="136"/>
-      <c r="C141" s="136"/>
-      <c r="D141" s="136"/>
+      <c r="A141" s="123"/>
+      <c r="B141" s="141"/>
+      <c r="C141" s="141"/>
+      <c r="D141" s="141"/>
     </row>
     <row r="142" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A142" s="199"/>
-      <c r="B142" s="136"/>
-      <c r="C142" s="136"/>
-      <c r="D142" s="136"/>
+      <c r="A142" s="123"/>
+      <c r="B142" s="141"/>
+      <c r="C142" s="141"/>
+      <c r="D142" s="141"/>
     </row>
     <row r="143" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="199"/>
-      <c r="B143" s="136"/>
-      <c r="C143" s="136"/>
-      <c r="D143" s="136"/>
+      <c r="A143" s="123"/>
+      <c r="B143" s="141"/>
+      <c r="C143" s="141"/>
+      <c r="D143" s="141"/>
     </row>
     <row r="144" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A144" s="199"/>
-      <c r="B144" s="136"/>
-      <c r="C144" s="136"/>
-      <c r="D144" s="136"/>
+      <c r="A144" s="123"/>
+      <c r="B144" s="141"/>
+      <c r="C144" s="141"/>
+      <c r="D144" s="141"/>
     </row>
     <row r="145" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="199"/>
-      <c r="B145" s="136"/>
-      <c r="C145" s="136"/>
-      <c r="D145" s="136"/>
+      <c r="A145" s="123"/>
+      <c r="B145" s="141"/>
+      <c r="C145" s="141"/>
+      <c r="D145" s="141"/>
     </row>
     <row r="146" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A146" s="199"/>
-      <c r="B146" s="136"/>
-      <c r="C146" s="136"/>
-      <c r="D146" s="136"/>
+      <c r="A146" s="123"/>
+      <c r="B146" s="141"/>
+      <c r="C146" s="141"/>
+      <c r="D146" s="141"/>
     </row>
     <row r="147" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="199"/>
-      <c r="B147" s="136"/>
-      <c r="C147" s="136"/>
-      <c r="D147" s="136"/>
+      <c r="A147" s="123"/>
+      <c r="B147" s="141"/>
+      <c r="C147" s="141"/>
+      <c r="D147" s="141"/>
     </row>
     <row r="148" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A148" s="199"/>
-      <c r="B148" s="136"/>
-      <c r="C148" s="136"/>
-      <c r="D148" s="136"/>
+      <c r="A148" s="123"/>
+      <c r="B148" s="141"/>
+      <c r="C148" s="141"/>
+      <c r="D148" s="141"/>
     </row>
     <row r="149" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A149" s="199"/>
-      <c r="B149" s="136"/>
-      <c r="C149" s="136"/>
-      <c r="D149" s="136"/>
+      <c r="A149" s="123"/>
+      <c r="B149" s="141"/>
+      <c r="C149" s="141"/>
+      <c r="D149" s="141"/>
     </row>
     <row r="150" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A150" s="199"/>
-      <c r="B150" s="136"/>
-      <c r="C150" s="136"/>
-      <c r="D150" s="136"/>
+      <c r="A150" s="123"/>
+      <c r="B150" s="141"/>
+      <c r="C150" s="141"/>
+      <c r="D150" s="141"/>
     </row>
     <row r="151" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A151" s="199"/>
-      <c r="B151" s="136"/>
-      <c r="C151" s="136"/>
-      <c r="D151" s="136"/>
+      <c r="A151" s="123"/>
+      <c r="B151" s="141"/>
+      <c r="C151" s="141"/>
+      <c r="D151" s="141"/>
     </row>
     <row r="152" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A152" s="199"/>
-      <c r="B152" s="136"/>
-      <c r="C152" s="136"/>
-      <c r="D152" s="136"/>
+      <c r="A152" s="123"/>
+      <c r="B152" s="141"/>
+      <c r="C152" s="141"/>
+      <c r="D152" s="141"/>
     </row>
     <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="199"/>
-      <c r="B153" s="136"/>
-      <c r="C153" s="136"/>
-      <c r="D153" s="136"/>
+      <c r="A153" s="123"/>
+      <c r="B153" s="141"/>
+      <c r="C153" s="141"/>
+      <c r="D153" s="141"/>
     </row>
     <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="199"/>
-      <c r="B154" s="136"/>
-      <c r="C154" s="136"/>
-      <c r="D154" s="136"/>
+      <c r="A154" s="123"/>
+      <c r="B154" s="141"/>
+      <c r="C154" s="141"/>
+      <c r="D154" s="141"/>
     </row>
     <row r="155" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A155" s="199"/>
-      <c r="B155" s="136"/>
-      <c r="C155" s="136"/>
-      <c r="D155" s="136"/>
+      <c r="A155" s="123"/>
+      <c r="B155" s="141"/>
+      <c r="C155" s="141"/>
+      <c r="D155" s="141"/>
     </row>
     <row r="156" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A156" s="199"/>
-      <c r="B156" s="136"/>
-      <c r="C156" s="136"/>
-      <c r="D156" s="136"/>
+      <c r="A156" s="123"/>
+      <c r="B156" s="141"/>
+      <c r="C156" s="141"/>
+      <c r="D156" s="141"/>
     </row>
     <row r="157" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="199"/>
-      <c r="B157" s="136"/>
-      <c r="C157" s="136"/>
-      <c r="D157" s="136"/>
+      <c r="A157" s="123"/>
+      <c r="B157" s="141"/>
+      <c r="C157" s="141"/>
+      <c r="D157" s="141"/>
     </row>
     <row r="158" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A158" s="199"/>
-      <c r="B158" s="136"/>
-      <c r="C158" s="136"/>
-      <c r="D158" s="136"/>
+      <c r="A158" s="123"/>
+      <c r="B158" s="141"/>
+      <c r="C158" s="141"/>
+      <c r="D158" s="141"/>
     </row>
     <row r="159" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A159" s="199"/>
-      <c r="B159" s="136"/>
-      <c r="C159" s="136"/>
-      <c r="D159" s="136"/>
+      <c r="A159" s="123"/>
+      <c r="B159" s="141"/>
+      <c r="C159" s="141"/>
+      <c r="D159" s="141"/>
     </row>
     <row r="160" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A160" s="199"/>
-      <c r="B160" s="136"/>
-      <c r="C160" s="136"/>
-      <c r="D160" s="136"/>
+      <c r="A160" s="123"/>
+      <c r="B160" s="141"/>
+      <c r="C160" s="141"/>
+      <c r="D160" s="141"/>
     </row>
     <row r="161" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A161" s="199"/>
-      <c r="B161" s="136"/>
-      <c r="C161" s="136"/>
-      <c r="D161" s="136"/>
+      <c r="A161" s="123"/>
+      <c r="B161" s="141"/>
+      <c r="C161" s="141"/>
+      <c r="D161" s="141"/>
     </row>
     <row r="162" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A162" s="199"/>
-      <c r="B162" s="136"/>
-      <c r="C162" s="136"/>
-      <c r="D162" s="136"/>
+      <c r="A162" s="123"/>
+      <c r="B162" s="141"/>
+      <c r="C162" s="141"/>
+      <c r="D162" s="141"/>
     </row>
     <row r="163" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A163" s="199"/>
-      <c r="B163" s="136"/>
-      <c r="C163" s="136"/>
-      <c r="D163" s="136"/>
+      <c r="A163" s="123"/>
+      <c r="B163" s="141"/>
+      <c r="C163" s="141"/>
+      <c r="D163" s="141"/>
     </row>
     <row r="164" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="199"/>
-      <c r="B164" s="136"/>
-      <c r="C164" s="136"/>
-      <c r="D164" s="136"/>
+      <c r="A164" s="123"/>
+      <c r="B164" s="141"/>
+      <c r="C164" s="141"/>
+      <c r="D164" s="141"/>
     </row>
     <row r="165" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A165" s="199"/>
-      <c r="B165" s="136"/>
-      <c r="C165" s="136"/>
-      <c r="D165" s="136"/>
+      <c r="A165" s="123"/>
+      <c r="B165" s="141"/>
+      <c r="C165" s="141"/>
+      <c r="D165" s="141"/>
     </row>
     <row r="166" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="199"/>
-      <c r="B166" s="136"/>
-      <c r="C166" s="136"/>
-      <c r="D166" s="136"/>
+      <c r="A166" s="123"/>
+      <c r="B166" s="141"/>
+      <c r="C166" s="141"/>
+      <c r="D166" s="141"/>
     </row>
     <row r="167" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="199"/>
-      <c r="B167" s="136"/>
-      <c r="C167" s="136"/>
-      <c r="D167" s="136"/>
+      <c r="A167" s="123"/>
+      <c r="B167" s="141"/>
+      <c r="C167" s="141"/>
+      <c r="D167" s="141"/>
     </row>
     <row r="168" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A168" s="199"/>
-      <c r="B168" s="136"/>
-      <c r="C168" s="136"/>
-      <c r="D168" s="136"/>
+      <c r="A168" s="123"/>
+      <c r="B168" s="141"/>
+      <c r="C168" s="141"/>
+      <c r="D168" s="141"/>
     </row>
     <row r="169" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A169" s="199"/>
-      <c r="B169" s="136"/>
-      <c r="C169" s="136"/>
-      <c r="D169" s="136"/>
+      <c r="A169" s="123"/>
+      <c r="B169" s="141"/>
+      <c r="C169" s="141"/>
+      <c r="D169" s="141"/>
     </row>
     <row r="170" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A170" s="199"/>
-      <c r="B170" s="136"/>
-      <c r="C170" s="136"/>
-      <c r="D170" s="136"/>
+      <c r="A170" s="123"/>
+      <c r="B170" s="141"/>
+      <c r="C170" s="141"/>
+      <c r="D170" s="141"/>
     </row>
     <row r="171" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A171" s="199"/>
-      <c r="B171" s="136"/>
-      <c r="C171" s="136"/>
-      <c r="D171" s="136"/>
+      <c r="A171" s="123"/>
+      <c r="B171" s="141"/>
+      <c r="C171" s="141"/>
+      <c r="D171" s="141"/>
     </row>
     <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="199"/>
-      <c r="B172" s="136"/>
-      <c r="C172" s="136"/>
-      <c r="D172" s="136"/>
+      <c r="A172" s="123"/>
+      <c r="B172" s="141"/>
+      <c r="C172" s="141"/>
+      <c r="D172" s="141"/>
     </row>
     <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="199"/>
-      <c r="B173" s="136"/>
-      <c r="C173" s="136"/>
-      <c r="D173" s="136"/>
+      <c r="A173" s="123"/>
+      <c r="B173" s="141"/>
+      <c r="C173" s="141"/>
+      <c r="D173" s="141"/>
     </row>
     <row r="174" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A174" s="199"/>
-      <c r="B174" s="136"/>
-      <c r="C174" s="136"/>
-      <c r="D174" s="136"/>
+      <c r="A174" s="123"/>
+      <c r="B174" s="141"/>
+      <c r="C174" s="141"/>
+      <c r="D174" s="141"/>
     </row>
     <row r="175" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A175" s="199"/>
-      <c r="B175" s="136"/>
-      <c r="C175" s="136"/>
-      <c r="D175" s="136"/>
+      <c r="A175" s="123"/>
+      <c r="B175" s="141"/>
+      <c r="C175" s="141"/>
+      <c r="D175" s="141"/>
     </row>
     <row r="176" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="199"/>
-      <c r="B176" s="136"/>
-      <c r="C176" s="136"/>
-      <c r="D176" s="136"/>
+      <c r="A176" s="123"/>
+      <c r="B176" s="141"/>
+      <c r="C176" s="141"/>
+      <c r="D176" s="141"/>
     </row>
     <row r="177" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A177" s="199"/>
-      <c r="B177" s="136"/>
-      <c r="C177" s="136"/>
-      <c r="D177" s="136"/>
+      <c r="A177" s="123"/>
+      <c r="B177" s="141"/>
+      <c r="C177" s="141"/>
+      <c r="D177" s="141"/>
     </row>
     <row r="178" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A178" s="199"/>
-      <c r="B178" s="136"/>
-      <c r="C178" s="136"/>
-      <c r="D178" s="136"/>
+      <c r="A178" s="123"/>
+      <c r="B178" s="141"/>
+      <c r="C178" s="141"/>
+      <c r="D178" s="141"/>
     </row>
     <row r="179" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A179" s="199"/>
-      <c r="B179" s="136"/>
-      <c r="C179" s="136"/>
-      <c r="D179" s="136"/>
+      <c r="A179" s="123"/>
+      <c r="B179" s="141"/>
+      <c r="C179" s="141"/>
+      <c r="D179" s="141"/>
     </row>
     <row r="180" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A180" s="199"/>
-      <c r="B180" s="136"/>
-      <c r="C180" s="136"/>
-      <c r="D180" s="136"/>
+      <c r="A180" s="123"/>
+      <c r="B180" s="141"/>
+      <c r="C180" s="141"/>
+      <c r="D180" s="141"/>
     </row>
     <row r="181" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A181" s="199"/>
-      <c r="B181" s="136"/>
-      <c r="C181" s="136"/>
-      <c r="D181" s="136"/>
+      <c r="A181" s="123"/>
+      <c r="B181" s="141"/>
+      <c r="C181" s="141"/>
+      <c r="D181" s="141"/>
     </row>
     <row r="182" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A182" s="199"/>
-      <c r="B182" s="136"/>
-      <c r="C182" s="136"/>
-      <c r="D182" s="136"/>
+      <c r="A182" s="123"/>
+      <c r="B182" s="141"/>
+      <c r="C182" s="141"/>
+      <c r="D182" s="141"/>
     </row>
     <row r="183" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="199"/>
-      <c r="B183" s="136"/>
-      <c r="C183" s="136"/>
-      <c r="D183" s="136"/>
+      <c r="A183" s="123"/>
+      <c r="B183" s="141"/>
+      <c r="C183" s="141"/>
+      <c r="D183" s="141"/>
     </row>
     <row r="184" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A184" s="199"/>
-      <c r="B184" s="136"/>
-      <c r="C184" s="136"/>
-      <c r="D184" s="136"/>
+      <c r="A184" s="123"/>
+      <c r="B184" s="141"/>
+      <c r="C184" s="141"/>
+      <c r="D184" s="141"/>
     </row>
     <row r="185" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A185" s="199"/>
-      <c r="B185" s="136"/>
-      <c r="C185" s="136"/>
-      <c r="D185" s="136"/>
+      <c r="A185" s="123"/>
+      <c r="B185" s="141"/>
+      <c r="C185" s="141"/>
+      <c r="D185" s="141"/>
     </row>
     <row r="186" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A186" s="199"/>
-      <c r="B186" s="136"/>
-      <c r="C186" s="136"/>
-      <c r="D186" s="136"/>
+      <c r="A186" s="123"/>
+      <c r="B186" s="141"/>
+      <c r="C186" s="141"/>
+      <c r="D186" s="141"/>
     </row>
     <row r="187" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A187" s="199"/>
-      <c r="B187" s="136"/>
-      <c r="C187" s="136"/>
-      <c r="D187" s="136"/>
+      <c r="A187" s="123"/>
+      <c r="B187" s="141"/>
+      <c r="C187" s="141"/>
+      <c r="D187" s="141"/>
     </row>
     <row r="188" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="199"/>
-      <c r="B188" s="136"/>
-      <c r="C188" s="136"/>
-      <c r="D188" s="136"/>
+      <c r="A188" s="123"/>
+      <c r="B188" s="141"/>
+      <c r="C188" s="141"/>
+      <c r="D188" s="141"/>
     </row>
     <row r="189" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="199"/>
-      <c r="B189" s="136"/>
-      <c r="C189" s="136"/>
-      <c r="D189" s="136"/>
+      <c r="A189" s="123"/>
+      <c r="B189" s="141"/>
+      <c r="C189" s="141"/>
+      <c r="D189" s="141"/>
     </row>
     <row r="190" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A190" s="199"/>
-      <c r="B190" s="136"/>
-      <c r="C190" s="136"/>
-      <c r="D190" s="136"/>
+      <c r="A190" s="123"/>
+      <c r="B190" s="141"/>
+      <c r="C190" s="141"/>
+      <c r="D190" s="141"/>
     </row>
     <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="199"/>
-      <c r="B191" s="136"/>
-      <c r="C191" s="136"/>
-      <c r="D191" s="136"/>
+      <c r="A191" s="123"/>
+      <c r="B191" s="141"/>
+      <c r="C191" s="141"/>
+      <c r="D191" s="141"/>
     </row>
     <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="199"/>
-      <c r="B192" s="136"/>
-      <c r="C192" s="136"/>
-      <c r="D192" s="136"/>
+      <c r="A192" s="123"/>
+      <c r="B192" s="141"/>
+      <c r="C192" s="141"/>
+      <c r="D192" s="141"/>
     </row>
     <row r="193" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A193" s="199"/>
-      <c r="B193" s="136"/>
-      <c r="C193" s="136"/>
-      <c r="D193" s="136"/>
+      <c r="A193" s="123"/>
+      <c r="B193" s="141"/>
+      <c r="C193" s="141"/>
+      <c r="D193" s="141"/>
     </row>
     <row r="194" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A194" s="199"/>
-      <c r="B194" s="136"/>
-      <c r="C194" s="136"/>
-      <c r="D194" s="136"/>
+      <c r="A194" s="123"/>
+      <c r="B194" s="141"/>
+      <c r="C194" s="141"/>
+      <c r="D194" s="141"/>
     </row>
     <row r="195" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A195" s="199"/>
-      <c r="B195" s="136"/>
-      <c r="C195" s="136"/>
-      <c r="D195" s="136"/>
+      <c r="A195" s="123"/>
+      <c r="B195" s="141"/>
+      <c r="C195" s="141"/>
+      <c r="D195" s="141"/>
     </row>
     <row r="196" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A196" s="199"/>
-      <c r="B196" s="136"/>
-      <c r="C196" s="136"/>
-      <c r="D196" s="136"/>
+      <c r="A196" s="123"/>
+      <c r="B196" s="141"/>
+      <c r="C196" s="141"/>
+      <c r="D196" s="141"/>
     </row>
     <row r="197" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A197" s="199"/>
-      <c r="B197" s="136"/>
-      <c r="C197" s="136"/>
-      <c r="D197" s="136"/>
+      <c r="A197" s="123"/>
+      <c r="B197" s="141"/>
+      <c r="C197" s="141"/>
+      <c r="D197" s="141"/>
     </row>
     <row r="198" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A198" s="199"/>
-      <c r="B198" s="136"/>
-      <c r="C198" s="136"/>
-      <c r="D198" s="136"/>
+      <c r="A198" s="123"/>
+      <c r="B198" s="141"/>
+      <c r="C198" s="141"/>
+      <c r="D198" s="141"/>
     </row>
     <row r="199" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A199" s="199"/>
-      <c r="B199" s="136"/>
-      <c r="C199" s="136"/>
-      <c r="D199" s="136"/>
+      <c r="A199" s="123"/>
+      <c r="B199" s="141"/>
+      <c r="C199" s="141"/>
+      <c r="D199" s="141"/>
     </row>
     <row r="200" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A200" s="199"/>
-      <c r="B200" s="136"/>
-      <c r="C200" s="136"/>
-      <c r="D200" s="136"/>
+      <c r="A200" s="123"/>
+      <c r="B200" s="141"/>
+      <c r="C200" s="141"/>
+      <c r="D200" s="141"/>
     </row>
     <row r="201" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A201" s="199"/>
-      <c r="B201" s="136"/>
-      <c r="C201" s="136"/>
-      <c r="D201" s="136"/>
+      <c r="A201" s="123"/>
+      <c r="B201" s="141"/>
+      <c r="C201" s="141"/>
+      <c r="D201" s="141"/>
     </row>
     <row r="202" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="199"/>
-      <c r="B202" s="136"/>
-      <c r="C202" s="136"/>
-      <c r="D202" s="136"/>
+      <c r="A202" s="123"/>
+      <c r="B202" s="141"/>
+      <c r="C202" s="141"/>
+      <c r="D202" s="141"/>
     </row>
     <row r="203" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A203" s="199"/>
-      <c r="B203" s="136"/>
-      <c r="C203" s="136"/>
-      <c r="D203" s="136"/>
+      <c r="A203" s="123"/>
+      <c r="B203" s="141"/>
+      <c r="C203" s="141"/>
+      <c r="D203" s="141"/>
     </row>
     <row r="204" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A204" s="199"/>
-      <c r="B204" s="136"/>
-      <c r="C204" s="136"/>
-      <c r="D204" s="136"/>
+      <c r="A204" s="123"/>
+      <c r="B204" s="141"/>
+      <c r="C204" s="141"/>
+      <c r="D204" s="141"/>
     </row>
     <row r="205" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="199"/>
-      <c r="B205" s="136"/>
-      <c r="C205" s="136"/>
-      <c r="D205" s="136"/>
+      <c r="A205" s="123"/>
+      <c r="B205" s="141"/>
+      <c r="C205" s="141"/>
+      <c r="D205" s="141"/>
     </row>
     <row r="206" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A206" s="199"/>
-      <c r="B206" s="136"/>
-      <c r="C206" s="136"/>
-      <c r="D206" s="136"/>
+      <c r="A206" s="123"/>
+      <c r="B206" s="141"/>
+      <c r="C206" s="141"/>
+      <c r="D206" s="141"/>
     </row>
     <row r="207" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="199"/>
-      <c r="B207" s="136"/>
-      <c r="C207" s="136"/>
-      <c r="D207" s="136"/>
+      <c r="A207" s="123"/>
+      <c r="B207" s="141"/>
+      <c r="C207" s="141"/>
+      <c r="D207" s="141"/>
     </row>
     <row r="208" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="199"/>
-      <c r="B208" s="136"/>
-      <c r="C208" s="136"/>
-      <c r="D208" s="136"/>
+      <c r="A208" s="123"/>
+      <c r="B208" s="141"/>
+      <c r="C208" s="141"/>
+      <c r="D208" s="141"/>
     </row>
     <row r="209" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A209" s="199"/>
-      <c r="B209" s="136"/>
-      <c r="C209" s="136"/>
-      <c r="D209" s="136"/>
+      <c r="A209" s="123"/>
+      <c r="B209" s="141"/>
+      <c r="C209" s="141"/>
+      <c r="D209" s="141"/>
     </row>
     <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="199"/>
-      <c r="B210" s="136"/>
-      <c r="C210" s="136"/>
-      <c r="D210" s="136"/>
+      <c r="A210" s="123"/>
+      <c r="B210" s="141"/>
+      <c r="C210" s="141"/>
+      <c r="D210" s="141"/>
     </row>
     <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="199"/>
-      <c r="B211" s="136"/>
-      <c r="C211" s="136"/>
-      <c r="D211" s="136"/>
+      <c r="A211" s="123"/>
+      <c r="B211" s="141"/>
+      <c r="C211" s="141"/>
+      <c r="D211" s="141"/>
     </row>
     <row r="212" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A212" s="199"/>
-      <c r="B212" s="136"/>
-      <c r="C212" s="136"/>
-      <c r="D212" s="136"/>
+      <c r="A212" s="123"/>
+      <c r="B212" s="141"/>
+      <c r="C212" s="141"/>
+      <c r="D212" s="141"/>
     </row>
     <row r="213" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A213" s="199"/>
-      <c r="B213" s="136"/>
-      <c r="C213" s="136"/>
-      <c r="D213" s="136"/>
+      <c r="A213" s="123"/>
+      <c r="B213" s="141"/>
+      <c r="C213" s="141"/>
+      <c r="D213" s="141"/>
     </row>
     <row r="214" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A214" s="199"/>
-      <c r="B214" s="136"/>
-      <c r="C214" s="136"/>
-      <c r="D214" s="136"/>
+      <c r="A214" s="123"/>
+      <c r="B214" s="141"/>
+      <c r="C214" s="141"/>
+      <c r="D214" s="141"/>
     </row>
     <row r="215" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A215" s="199"/>
-      <c r="B215" s="136"/>
-      <c r="C215" s="136"/>
-      <c r="D215" s="136"/>
+      <c r="A215" s="123"/>
+      <c r="B215" s="141"/>
+      <c r="C215" s="141"/>
+      <c r="D215" s="141"/>
     </row>
     <row r="216" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A216" s="199"/>
-      <c r="B216" s="136"/>
-      <c r="C216" s="136"/>
-      <c r="D216" s="136"/>
+      <c r="A216" s="123"/>
+      <c r="B216" s="141"/>
+      <c r="C216" s="141"/>
+      <c r="D216" s="141"/>
     </row>
     <row r="217" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A217" s="199"/>
-      <c r="B217" s="136"/>
-      <c r="C217" s="136"/>
-      <c r="D217" s="136"/>
+      <c r="A217" s="123"/>
+      <c r="B217" s="141"/>
+      <c r="C217" s="141"/>
+      <c r="D217" s="141"/>
     </row>
     <row r="218" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A218" s="199"/>
-      <c r="B218" s="136"/>
-      <c r="C218" s="136"/>
-      <c r="D218" s="136"/>
+      <c r="A218" s="123"/>
+      <c r="B218" s="141"/>
+      <c r="C218" s="141"/>
+      <c r="D218" s="141"/>
     </row>
     <row r="219" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A219" s="199"/>
-      <c r="B219" s="136"/>
-      <c r="C219" s="136"/>
-      <c r="D219" s="136"/>
+      <c r="A219" s="123"/>
+      <c r="B219" s="141"/>
+      <c r="C219" s="141"/>
+      <c r="D219" s="141"/>
     </row>
     <row r="220" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A220" s="199"/>
-      <c r="B220" s="136"/>
-      <c r="C220" s="136"/>
-      <c r="D220" s="136"/>
+      <c r="A220" s="123"/>
+      <c r="B220" s="141"/>
+      <c r="C220" s="141"/>
+      <c r="D220" s="141"/>
     </row>
     <row r="221" spans="1:4" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="199"/>
-      <c r="B221" s="136"/>
-      <c r="C221" s="136"/>
-      <c r="D221" s="136"/>
+      <c r="A221" s="123"/>
+      <c r="B221" s="141"/>
+      <c r="C221" s="141"/>
+      <c r="D221" s="141"/>
     </row>
     <row r="222" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A222" s="199"/>
-      <c r="B222" s="136"/>
-      <c r="C222" s="136"/>
-      <c r="D222" s="136"/>
+      <c r="A222" s="123"/>
+      <c r="B222" s="141"/>
+      <c r="C222" s="141"/>
+      <c r="D222" s="141"/>
     </row>
     <row r="223" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A223" s="199"/>
-      <c r="B223" s="136"/>
-      <c r="C223" s="136"/>
-      <c r="D223" s="136"/>
+      <c r="A223" s="123"/>
+      <c r="B223" s="141"/>
+      <c r="C223" s="141"/>
+      <c r="D223" s="141"/>
     </row>
     <row r="224" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A224" s="199"/>
-      <c r="B224" s="136"/>
-      <c r="C224" s="136"/>
-      <c r="D224" s="136"/>
+      <c r="A224" s="123"/>
+      <c r="B224" s="141"/>
+      <c r="C224" s="141"/>
+      <c r="D224" s="141"/>
     </row>
     <row r="225" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A225" s="199"/>
-      <c r="B225" s="136"/>
-      <c r="C225" s="136"/>
-      <c r="D225" s="136"/>
+      <c r="A225" s="123"/>
+      <c r="B225" s="141"/>
+      <c r="C225" s="141"/>
+      <c r="D225" s="141"/>
     </row>
     <row r="226" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="199"/>
-      <c r="B226" s="136"/>
-      <c r="C226" s="136"/>
-      <c r="D226" s="136"/>
+      <c r="A226" s="123"/>
+      <c r="B226" s="141"/>
+      <c r="C226" s="141"/>
+      <c r="D226" s="141"/>
     </row>
     <row r="227" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A227" s="199"/>
-      <c r="B227" s="136"/>
-      <c r="C227" s="136"/>
-      <c r="D227" s="136"/>
+      <c r="A227" s="123"/>
+      <c r="B227" s="141"/>
+      <c r="C227" s="141"/>
+      <c r="D227" s="141"/>
     </row>
     <row r="228" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A228" s="199"/>
-      <c r="B228" s="136"/>
-      <c r="C228" s="136"/>
-      <c r="D228" s="136"/>
+      <c r="A228" s="123"/>
+      <c r="B228" s="141"/>
+      <c r="C228" s="141"/>
+      <c r="D228" s="141"/>
     </row>
     <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="199"/>
-      <c r="B229" s="136"/>
-      <c r="C229" s="136"/>
-      <c r="D229" s="136"/>
+      <c r="A229" s="123"/>
+      <c r="B229" s="141"/>
+      <c r="C229" s="141"/>
+      <c r="D229" s="141"/>
     </row>
     <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="199"/>
-      <c r="B230" s="136"/>
-      <c r="C230" s="136"/>
-      <c r="D230" s="136"/>
+      <c r="A230" s="123"/>
+      <c r="B230" s="141"/>
+      <c r="C230" s="141"/>
+      <c r="D230" s="141"/>
     </row>
     <row r="231" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A231" s="199"/>
-      <c r="B231" s="136"/>
-      <c r="C231" s="136"/>
-      <c r="D231" s="136"/>
+      <c r="A231" s="123"/>
+      <c r="B231" s="141"/>
+      <c r="C231" s="141"/>
+      <c r="D231" s="141"/>
     </row>
     <row r="232" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A232" s="199"/>
-      <c r="B232" s="136"/>
-      <c r="C232" s="136"/>
-      <c r="D232" s="136"/>
+      <c r="A232" s="123"/>
+      <c r="B232" s="141"/>
+      <c r="C232" s="141"/>
+      <c r="D232" s="141"/>
     </row>
     <row r="233" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A233" s="199"/>
-      <c r="B233" s="136"/>
-      <c r="C233" s="136"/>
-      <c r="D233" s="136"/>
+      <c r="A233" s="123"/>
+      <c r="B233" s="141"/>
+      <c r="C233" s="141"/>
+      <c r="D233" s="141"/>
     </row>
     <row r="234" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A234" s="199"/>
-      <c r="B234" s="136"/>
-      <c r="C234" s="136"/>
-      <c r="D234" s="136"/>
+      <c r="A234" s="123"/>
+      <c r="B234" s="141"/>
+      <c r="C234" s="141"/>
+      <c r="D234" s="141"/>
     </row>
     <row r="235" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A235" s="199"/>
-      <c r="B235" s="136"/>
-      <c r="C235" s="136"/>
-      <c r="D235" s="136"/>
+      <c r="A235" s="123"/>
+      <c r="B235" s="141"/>
+      <c r="C235" s="141"/>
+      <c r="D235" s="141"/>
     </row>
     <row r="236" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A236" s="199"/>
-      <c r="B236" s="136"/>
-      <c r="C236" s="136"/>
-      <c r="D236" s="136"/>
+      <c r="A236" s="123"/>
+      <c r="B236" s="141"/>
+      <c r="C236" s="141"/>
+      <c r="D236" s="141"/>
     </row>
     <row r="237" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A237" s="199"/>
-      <c r="B237" s="136"/>
-      <c r="C237" s="136"/>
-      <c r="D237" s="136"/>
+      <c r="A237" s="123"/>
+      <c r="B237" s="141"/>
+      <c r="C237" s="141"/>
+      <c r="D237" s="141"/>
     </row>
     <row r="238" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A238" s="199"/>
-      <c r="B238" s="136"/>
-      <c r="C238" s="136"/>
-      <c r="D238" s="136"/>
+      <c r="A238" s="123"/>
+      <c r="B238" s="141"/>
+      <c r="C238" s="141"/>
+      <c r="D238" s="141"/>
     </row>
     <row r="239" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A239" s="199"/>
-      <c r="B239" s="136"/>
-      <c r="C239" s="136"/>
-      <c r="D239" s="136"/>
+      <c r="A239" s="123"/>
+      <c r="B239" s="141"/>
+      <c r="C239" s="141"/>
+      <c r="D239" s="141"/>
     </row>
     <row r="240" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="199"/>
-      <c r="B240" s="136"/>
-      <c r="C240" s="136"/>
-      <c r="D240" s="136"/>
+      <c r="A240" s="123"/>
+      <c r="B240" s="141"/>
+      <c r="C240" s="141"/>
+      <c r="D240" s="141"/>
     </row>
     <row r="241" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A241" s="199"/>
-      <c r="B241" s="136"/>
-      <c r="C241" s="136"/>
-      <c r="D241" s="136"/>
+      <c r="A241" s="123"/>
+      <c r="B241" s="141"/>
+      <c r="C241" s="141"/>
+      <c r="D241" s="141"/>
     </row>
     <row r="242" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A242" s="199"/>
-      <c r="B242" s="136"/>
-      <c r="C242" s="136"/>
-      <c r="D242" s="136"/>
+      <c r="A242" s="123"/>
+      <c r="B242" s="141"/>
+      <c r="C242" s="141"/>
+      <c r="D242" s="141"/>
     </row>
     <row r="243" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A243" s="199"/>
-      <c r="B243" s="136"/>
-      <c r="C243" s="136"/>
-      <c r="D243" s="136"/>
+      <c r="A243" s="123"/>
+      <c r="B243" s="141"/>
+      <c r="C243" s="141"/>
+      <c r="D243" s="141"/>
     </row>
     <row r="244" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A244" s="199"/>
-      <c r="B244" s="136"/>
-      <c r="C244" s="136"/>
-      <c r="D244" s="136"/>
+      <c r="A244" s="123"/>
+      <c r="B244" s="141"/>
+      <c r="C244" s="141"/>
+      <c r="D244" s="141"/>
     </row>
     <row r="245" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A245" s="199"/>
-      <c r="B245" s="136"/>
-      <c r="C245" s="136"/>
-      <c r="D245" s="136"/>
+      <c r="A245" s="123"/>
+      <c r="B245" s="141"/>
+      <c r="C245" s="141"/>
+      <c r="D245" s="141"/>
     </row>
     <row r="246" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="199"/>
-      <c r="B246" s="136"/>
-      <c r="C246" s="136"/>
-      <c r="D246" s="136"/>
+      <c r="A246" s="123"/>
+      <c r="B246" s="141"/>
+      <c r="C246" s="141"/>
+      <c r="D246" s="141"/>
     </row>
     <row r="247" spans="1:4" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B247" s="136"/>
-      <c r="C247" s="136"/>
-      <c r="D247" s="136"/>
+      <c r="B247" s="141"/>
+      <c r="C247" s="141"/>
+      <c r="D247" s="141"/>
     </row>
     <row r="250" spans="1:4" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="251" spans="1:4" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -35448,21 +35428,15 @@
     <row r="266" ht="12.5" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B62:D247"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B3:C6"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B41:C44"/>
     <mergeCell ref="B45:C46"/>
@@ -35476,15 +35450,21 @@
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B3:C6"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B62:D247"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B17" r:id="rId1"/>
@@ -35502,8 +35482,8 @@
   </sheetPr>
   <dimension ref="A1:Z1014"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -35521,17 +35501,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="154">
+      <c r="A1" s="179">
         <v>1</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="201" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="124" t="s">
         <v>87</v>
       </c>
       <c r="D1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="202">
+      <c r="E1" s="125">
         <v>45583</v>
       </c>
       <c r="F1" s="41" t="s">
@@ -35544,10 +35524,10 @@
       <c r="I1" s="14"/>
       <c r="J1" s="14"/>
       <c r="K1" s="14"/>
-      <c r="L1" s="155" t="s">
+      <c r="L1" s="180" t="s">
         <v>91</v>
       </c>
-      <c r="M1" s="119"/>
+      <c r="M1" s="152"/>
       <c r="N1" s="14"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
@@ -35563,17 +35543,17 @@
       <c r="Z1" s="14"/>
     </row>
     <row r="2" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="179" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="152"/>
       <c r="C2" s="44" t="s">
         <v>93</v>
       </c>
       <c r="D2" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="202">
+      <c r="E2" s="125">
         <v>45585</v>
       </c>
       <c r="F2" s="41" t="s">
@@ -35605,16 +35585,16 @@
       <c r="Z2" s="14"/>
     </row>
     <row r="3" spans="1:26" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="179" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="119"/>
+      <c r="B3" s="152"/>
       <c r="C3" s="47"/>
       <c r="D3" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E3" s="203" t="s">
-        <v>582</v>
+      <c r="E3" s="126" t="s">
+        <v>586</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>98</v>
@@ -35645,16 +35625,16 @@
       <c r="Z3" s="14"/>
     </row>
     <row r="4" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="179" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="119"/>
+      <c r="B4" s="152"/>
       <c r="C4" s="47"/>
       <c r="D4" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E4" s="203" t="s">
-        <v>588</v>
+      <c r="E4" s="126" t="s">
+        <v>592</v>
       </c>
       <c r="F4" s="41" t="s">
         <v>102</v>
@@ -35685,16 +35665,16 @@
       <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="181" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="157"/>
-      <c r="D5" s="118"/>
-      <c r="E5" s="118"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="118"/>
-      <c r="H5" s="119"/>
+      <c r="B5" s="152"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="152"/>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
       <c r="K5" s="14"/>
@@ -35717,8 +35697,8 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="158"/>
-      <c r="B6" s="136"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="14"/>
@@ -35853,12 +35833,12 @@
       <c r="H9" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="I9" s="210" t="s">
+      <c r="I9" s="57" t="s">
         <v>123</v>
       </c>
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
-      <c r="L9" s="209" t="s">
+      <c r="L9" s="60" t="s">
         <v>124</v>
       </c>
       <c r="M9" s="59"/>
@@ -35909,8 +35889,8 @@
         <v>2</v>
       </c>
       <c r="B11" s="64"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="160" t="s">
+      <c r="C11" s="184"/>
+      <c r="D11" s="185" t="s">
         <v>125</v>
       </c>
       <c r="E11" s="58" t="s">
@@ -35925,7 +35905,7 @@
       <c r="H11" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I11" s="210" t="s">
+      <c r="I11" s="57" t="s">
         <v>130</v>
       </c>
       <c r="J11" s="64"/>
@@ -35953,8 +35933,8 @@
         <v>3</v>
       </c>
       <c r="B12" s="64"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="136"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="67" t="s">
         <v>131</v>
       </c>
@@ -35995,8 +35975,8 @@
         <v>4</v>
       </c>
       <c r="B13" s="64"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="136"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="67" t="s">
         <v>134</v>
       </c>
@@ -36037,8 +36017,8 @@
         <v>5</v>
       </c>
       <c r="B14" s="64"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="136"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="141"/>
       <c r="E14" s="67" t="s">
         <v>137</v>
       </c>
@@ -36079,8 +36059,8 @@
         <v>6</v>
       </c>
       <c r="B15" s="64"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="136"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="67" t="s">
         <v>139</v>
       </c>
@@ -36121,8 +36101,8 @@
         <v>7</v>
       </c>
       <c r="B16" s="64"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="136"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="141"/>
       <c r="E16" s="67" t="s">
         <v>142</v>
       </c>
@@ -36163,8 +36143,8 @@
         <v>8</v>
       </c>
       <c r="B17" s="64"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="136"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="141"/>
       <c r="E17" s="67" t="s">
         <v>144</v>
       </c>
@@ -36205,8 +36185,8 @@
         <v>9</v>
       </c>
       <c r="B18" s="64"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="136"/>
+      <c r="C18" s="177"/>
+      <c r="D18" s="141"/>
       <c r="E18" s="57" t="s">
         <v>147</v>
       </c>
@@ -36247,8 +36227,8 @@
         <v>10</v>
       </c>
       <c r="B19" s="64"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="136"/>
+      <c r="C19" s="177"/>
+      <c r="D19" s="141"/>
       <c r="E19" s="67" t="s">
         <v>151</v>
       </c>
@@ -36289,8 +36269,8 @@
         <v>11</v>
       </c>
       <c r="B20" s="64"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="136"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="141"/>
       <c r="E20" s="67" t="s">
         <v>154</v>
       </c>
@@ -36331,8 +36311,8 @@
         <v>12</v>
       </c>
       <c r="B21" s="64"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="136"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="141"/>
       <c r="E21" s="67" t="s">
         <v>156</v>
       </c>
@@ -36345,7 +36325,7 @@
       <c r="H21" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="I21" s="211" t="s">
+      <c r="I21" s="68" t="s">
         <v>158</v>
       </c>
       <c r="J21" s="64"/>
@@ -36373,8 +36353,8 @@
         <v>13</v>
       </c>
       <c r="B22" s="64"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="136"/>
+      <c r="C22" s="177"/>
+      <c r="D22" s="141"/>
       <c r="E22" s="67" t="s">
         <v>159</v>
       </c>
@@ -36415,8 +36395,8 @@
         <v>14</v>
       </c>
       <c r="B23" s="64"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="136"/>
+      <c r="C23" s="177"/>
+      <c r="D23" s="141"/>
       <c r="E23" s="67" t="s">
         <v>161</v>
       </c>
@@ -36457,8 +36437,8 @@
         <v>15</v>
       </c>
       <c r="B24" s="64"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="136"/>
+      <c r="C24" s="177"/>
+      <c r="D24" s="141"/>
       <c r="E24" s="68" t="s">
         <v>163</v>
       </c>
@@ -36499,8 +36479,8 @@
         <v>16</v>
       </c>
       <c r="B25" s="64"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="136"/>
+      <c r="C25" s="177"/>
+      <c r="D25" s="141"/>
       <c r="E25" s="67" t="s">
         <v>164</v>
       </c>
@@ -36541,8 +36521,8 @@
         <v>17</v>
       </c>
       <c r="B26" s="64"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="136"/>
+      <c r="C26" s="177"/>
+      <c r="D26" s="141"/>
       <c r="E26" s="67" t="s">
         <v>166</v>
       </c>
@@ -36583,8 +36563,8 @@
         <v>18</v>
       </c>
       <c r="B27" s="64"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="136"/>
+      <c r="C27" s="177"/>
+      <c r="D27" s="141"/>
       <c r="E27" s="67" t="s">
         <v>168</v>
       </c>
@@ -36625,8 +36605,8 @@
         <v>19</v>
       </c>
       <c r="B28" s="64"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="136"/>
+      <c r="C28" s="177"/>
+      <c r="D28" s="141"/>
       <c r="E28" s="67" t="s">
         <v>170</v>
       </c>
@@ -36669,8 +36649,8 @@
         <v>20</v>
       </c>
       <c r="B29" s="64"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="136"/>
+      <c r="C29" s="177"/>
+      <c r="D29" s="141"/>
       <c r="E29" s="67" t="s">
         <v>177</v>
       </c>
@@ -36711,8 +36691,8 @@
         <v>21</v>
       </c>
       <c r="B30" s="64"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="136"/>
+      <c r="C30" s="177"/>
+      <c r="D30" s="141"/>
       <c r="E30" s="67" t="s">
         <v>179</v>
       </c>
@@ -36753,8 +36733,8 @@
         <v>22</v>
       </c>
       <c r="B31" s="64"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="136"/>
+      <c r="C31" s="177"/>
+      <c r="D31" s="141"/>
       <c r="E31" s="67" t="s">
         <v>181</v>
       </c>
@@ -36795,8 +36775,8 @@
         <v>23</v>
       </c>
       <c r="B32" s="64"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="136"/>
+      <c r="C32" s="177"/>
+      <c r="D32" s="141"/>
       <c r="E32" s="67" t="s">
         <v>183</v>
       </c>
@@ -36837,8 +36817,8 @@
         <v>24</v>
       </c>
       <c r="B33" s="64"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="136"/>
+      <c r="C33" s="177"/>
+      <c r="D33" s="141"/>
       <c r="E33" s="67" t="s">
         <v>186</v>
       </c>
@@ -36879,8 +36859,8 @@
         <v>25</v>
       </c>
       <c r="B34" s="64"/>
-      <c r="C34" s="152"/>
-      <c r="D34" s="136"/>
+      <c r="C34" s="177"/>
+      <c r="D34" s="141"/>
       <c r="E34" s="67" t="s">
         <v>189</v>
       </c>
@@ -36896,7 +36876,7 @@
       <c r="I34" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="J34" s="212" t="s">
+      <c r="J34" s="72" t="s">
         <v>191</v>
       </c>
       <c r="K34" s="64"/>
@@ -36923,8 +36903,8 @@
         <v>26</v>
       </c>
       <c r="B35" s="64"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="136"/>
+      <c r="C35" s="177"/>
+      <c r="D35" s="141"/>
       <c r="E35" s="67" t="s">
         <v>192</v>
       </c>
@@ -36965,8 +36945,8 @@
         <v>27</v>
       </c>
       <c r="B36" s="75"/>
-      <c r="C36" s="152"/>
-      <c r="D36" s="136"/>
+      <c r="C36" s="177"/>
+      <c r="D36" s="141"/>
       <c r="E36" s="76" t="s">
         <v>195</v>
       </c>
@@ -37208,7 +37188,7 @@
       </c>
       <c r="B42" s="64"/>
       <c r="C42" s="64"/>
-      <c r="D42" s="161" t="s">
+      <c r="D42" s="186" t="s">
         <v>215</v>
       </c>
       <c r="E42" s="67" t="s">
@@ -37252,7 +37232,7 @@
       </c>
       <c r="B43" s="64"/>
       <c r="C43" s="64"/>
-      <c r="D43" s="152"/>
+      <c r="D43" s="177"/>
       <c r="E43" s="67" t="s">
         <v>219</v>
       </c>
@@ -37294,7 +37274,7 @@
       </c>
       <c r="B44" s="64"/>
       <c r="C44" s="64"/>
-      <c r="D44" s="152"/>
+      <c r="D44" s="177"/>
       <c r="E44" s="67" t="s">
         <v>223</v>
       </c>
@@ -37336,7 +37316,7 @@
       </c>
       <c r="B45" s="64"/>
       <c r="C45" s="64"/>
-      <c r="D45" s="152"/>
+      <c r="D45" s="177"/>
       <c r="E45" s="85" t="s">
         <v>227</v>
       </c>
@@ -37378,7 +37358,7 @@
       </c>
       <c r="B46" s="64"/>
       <c r="C46" s="64"/>
-      <c r="D46" s="152"/>
+      <c r="D46" s="177"/>
       <c r="E46" s="67" t="s">
         <v>230</v>
       </c>
@@ -37420,7 +37400,7 @@
       </c>
       <c r="B47" s="64"/>
       <c r="C47" s="64"/>
-      <c r="D47" s="152"/>
+      <c r="D47" s="177"/>
       <c r="E47" s="67" t="s">
         <v>234</v>
       </c>
@@ -37464,7 +37444,7 @@
       </c>
       <c r="B48" s="64"/>
       <c r="C48" s="64"/>
-      <c r="D48" s="152"/>
+      <c r="D48" s="177"/>
       <c r="E48" s="57" t="s">
         <v>239</v>
       </c>
@@ -37508,7 +37488,7 @@
       </c>
       <c r="B49" s="64"/>
       <c r="C49" s="64"/>
-      <c r="D49" s="152"/>
+      <c r="D49" s="177"/>
       <c r="E49" s="67" t="s">
         <v>243</v>
       </c>
@@ -37550,7 +37530,7 @@
       </c>
       <c r="B50" s="64"/>
       <c r="C50" s="64"/>
-      <c r="D50" s="152"/>
+      <c r="D50" s="177"/>
       <c r="E50" s="67" t="s">
         <v>247</v>
       </c>
@@ -37592,7 +37572,7 @@
       </c>
       <c r="B51" s="64"/>
       <c r="C51" s="64"/>
-      <c r="D51" s="152"/>
+      <c r="D51" s="177"/>
       <c r="E51" s="67" t="s">
         <v>251</v>
       </c>
@@ -37634,7 +37614,7 @@
       </c>
       <c r="B52" s="64"/>
       <c r="C52" s="64"/>
-      <c r="D52" s="152"/>
+      <c r="D52" s="177"/>
       <c r="E52" s="85" t="s">
         <v>253</v>
       </c>
@@ -37678,7 +37658,7 @@
       </c>
       <c r="B53" s="64"/>
       <c r="C53" s="64"/>
-      <c r="D53" s="152"/>
+      <c r="D53" s="177"/>
       <c r="E53" s="68" t="s">
         <v>258</v>
       </c>
@@ -37720,7 +37700,7 @@
       </c>
       <c r="B54" s="64"/>
       <c r="C54" s="64"/>
-      <c r="D54" s="152"/>
+      <c r="D54" s="177"/>
       <c r="E54" s="67" t="s">
         <v>262</v>
       </c>
@@ -37764,7 +37744,7 @@
       </c>
       <c r="B55" s="64"/>
       <c r="C55" s="64"/>
-      <c r="D55" s="153"/>
+      <c r="D55" s="178"/>
       <c r="E55" s="67" t="s">
         <v>267</v>
       </c>
@@ -37836,7 +37816,7 @@
       </c>
       <c r="B57" s="64"/>
       <c r="C57" s="64"/>
-      <c r="D57" s="162"/>
+      <c r="D57" s="187"/>
       <c r="E57" s="68" t="s">
         <v>272</v>
       </c>
@@ -37878,7 +37858,7 @@
       </c>
       <c r="B58" s="64"/>
       <c r="C58" s="64"/>
-      <c r="D58" s="152"/>
+      <c r="D58" s="177"/>
       <c r="E58" s="85" t="s">
         <v>275</v>
       </c>
@@ -37920,7 +37900,7 @@
       </c>
       <c r="B59" s="64"/>
       <c r="C59" s="64"/>
-      <c r="D59" s="152"/>
+      <c r="D59" s="177"/>
       <c r="E59" s="67" t="s">
         <v>279</v>
       </c>
@@ -37962,7 +37942,7 @@
       </c>
       <c r="B60" s="64"/>
       <c r="C60" s="64"/>
-      <c r="D60" s="152"/>
+      <c r="D60" s="177"/>
       <c r="E60" s="7" t="s">
         <v>283</v>
       </c>
@@ -38004,7 +37984,7 @@
       </c>
       <c r="B61" s="64"/>
       <c r="C61" s="64"/>
-      <c r="D61" s="152"/>
+      <c r="D61" s="177"/>
       <c r="E61" s="67" t="s">
         <v>286</v>
       </c>
@@ -38046,7 +38026,7 @@
       </c>
       <c r="B62" s="64"/>
       <c r="C62" s="64"/>
-      <c r="D62" s="152"/>
+      <c r="D62" s="177"/>
       <c r="E62" s="67" t="s">
         <v>289</v>
       </c>
@@ -38088,7 +38068,7 @@
       </c>
       <c r="B63" s="64"/>
       <c r="C63" s="64"/>
-      <c r="D63" s="152"/>
+      <c r="D63" s="177"/>
       <c r="E63" s="67" t="s">
         <v>293</v>
       </c>
@@ -38130,7 +38110,7 @@
       </c>
       <c r="B64" s="64"/>
       <c r="C64" s="64"/>
-      <c r="D64" s="152"/>
+      <c r="D64" s="177"/>
       <c r="E64" s="67" t="s">
         <v>296</v>
       </c>
@@ -38174,7 +38154,7 @@
       </c>
       <c r="B65" s="64"/>
       <c r="C65" s="64"/>
-      <c r="D65" s="152"/>
+      <c r="D65" s="177"/>
       <c r="E65" s="67" t="s">
         <v>301</v>
       </c>
@@ -38216,7 +38196,7 @@
       </c>
       <c r="B66" s="64"/>
       <c r="C66" s="64"/>
-      <c r="D66" s="152"/>
+      <c r="D66" s="177"/>
       <c r="E66" s="67" t="s">
         <v>304</v>
       </c>
@@ -38258,7 +38238,7 @@
       </c>
       <c r="B67" s="64"/>
       <c r="C67" s="64"/>
-      <c r="D67" s="152"/>
+      <c r="D67" s="177"/>
       <c r="E67" s="7" t="s">
         <v>305</v>
       </c>
@@ -38300,7 +38280,7 @@
       </c>
       <c r="B68" s="64"/>
       <c r="C68" s="64"/>
-      <c r="D68" s="152"/>
+      <c r="D68" s="177"/>
       <c r="E68" s="67" t="s">
         <v>306</v>
       </c>
@@ -38342,7 +38322,7 @@
       </c>
       <c r="B69" s="64"/>
       <c r="C69" s="64"/>
-      <c r="D69" s="152"/>
+      <c r="D69" s="177"/>
       <c r="E69" s="67" t="s">
         <v>309</v>
       </c>
@@ -38384,7 +38364,7 @@
       </c>
       <c r="B70" s="64"/>
       <c r="C70" s="64"/>
-      <c r="D70" s="152"/>
+      <c r="D70" s="177"/>
       <c r="E70" s="67" t="s">
         <v>312</v>
       </c>
@@ -38426,7 +38406,7 @@
       </c>
       <c r="B71" s="64"/>
       <c r="C71" s="64"/>
-      <c r="D71" s="152"/>
+      <c r="D71" s="177"/>
       <c r="E71" s="67" t="s">
         <v>315</v>
       </c>
@@ -38468,7 +38448,7 @@
       </c>
       <c r="B72" s="64"/>
       <c r="C72" s="64"/>
-      <c r="D72" s="152"/>
+      <c r="D72" s="177"/>
       <c r="E72" s="67" t="s">
         <v>319</v>
       </c>
@@ -38512,7 +38492,7 @@
       </c>
       <c r="B73" s="64"/>
       <c r="C73" s="64"/>
-      <c r="D73" s="152"/>
+      <c r="D73" s="177"/>
       <c r="E73" s="67" t="s">
         <v>323</v>
       </c>
@@ -38554,7 +38534,7 @@
       </c>
       <c r="B74" s="64"/>
       <c r="C74" s="64"/>
-      <c r="D74" s="152"/>
+      <c r="D74" s="177"/>
       <c r="E74" s="67" t="s">
         <v>327</v>
       </c>
@@ -38596,7 +38576,7 @@
       </c>
       <c r="B75" s="64"/>
       <c r="C75" s="64"/>
-      <c r="D75" s="152"/>
+      <c r="D75" s="177"/>
       <c r="E75" s="67" t="s">
         <v>330</v>
       </c>
@@ -38638,7 +38618,7 @@
       </c>
       <c r="B76" s="64"/>
       <c r="C76" s="64"/>
-      <c r="D76" s="152"/>
+      <c r="D76" s="177"/>
       <c r="E76" s="67" t="s">
         <v>333</v>
       </c>
@@ -38680,7 +38660,7 @@
       </c>
       <c r="B77" s="64"/>
       <c r="C77" s="64"/>
-      <c r="D77" s="152"/>
+      <c r="D77" s="177"/>
       <c r="E77" s="67" t="s">
         <v>336</v>
       </c>
@@ -38720,7 +38700,7 @@
       <c r="A78" s="93"/>
       <c r="B78" s="94"/>
       <c r="C78" s="94"/>
-      <c r="D78" s="152"/>
+      <c r="D78" s="177"/>
       <c r="E78" s="95"/>
       <c r="F78" s="95"/>
       <c r="G78" s="95"/>
@@ -38750,7 +38730,7 @@
       </c>
       <c r="B79" s="64"/>
       <c r="C79" s="64"/>
-      <c r="D79" s="152"/>
+      <c r="D79" s="177"/>
       <c r="E79" s="67" t="s">
         <v>339</v>
       </c>
@@ -38792,7 +38772,7 @@
       </c>
       <c r="B80" s="64"/>
       <c r="C80" s="64"/>
-      <c r="D80" s="152"/>
+      <c r="D80" s="177"/>
       <c r="E80" s="67" t="s">
         <v>344</v>
       </c>
@@ -38834,7 +38814,7 @@
       </c>
       <c r="B81" s="64"/>
       <c r="C81" s="64"/>
-      <c r="D81" s="152"/>
+      <c r="D81" s="177"/>
       <c r="E81" s="85" t="s">
         <v>348</v>
       </c>
@@ -38876,7 +38856,7 @@
       </c>
       <c r="B82" s="64"/>
       <c r="C82" s="64"/>
-      <c r="D82" s="153"/>
+      <c r="D82" s="178"/>
       <c r="E82" s="67" t="s">
         <v>351</v>
       </c>
@@ -39328,7 +39308,7 @@
       <c r="A93" s="54"/>
       <c r="B93" s="64"/>
       <c r="C93" s="64"/>
-      <c r="D93" s="151" t="s">
+      <c r="D93" s="176" t="s">
         <v>379</v>
       </c>
       <c r="E93" s="67" t="s">
@@ -39362,7 +39342,7 @@
       <c r="A94" s="54"/>
       <c r="B94" s="64"/>
       <c r="C94" s="64"/>
-      <c r="D94" s="152"/>
+      <c r="D94" s="177"/>
       <c r="E94" s="67" t="s">
         <v>381</v>
       </c>
@@ -39394,7 +39374,7 @@
       <c r="A95" s="105"/>
       <c r="B95" s="64"/>
       <c r="C95" s="64"/>
-      <c r="D95" s="153"/>
+      <c r="D95" s="178"/>
       <c r="E95" s="106" t="s">
         <v>382</v>
       </c>
@@ -65210,24 +65190,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="188" t="s">
         <v>409</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="145"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="171"/>
     </row>
     <row r="4" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="146"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="147"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="141"/>
+      <c r="D4" s="141"/>
+      <c r="E4" s="164"/>
     </row>
     <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="165"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="166"/>
-      <c r="E5" s="149"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="191"/>
+      <c r="E5" s="168"/>
     </row>
     <row r="6" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="108" t="s">
@@ -65415,989 +65395,980 @@
   </sheetPr>
   <dimension ref="A2:M58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="198" t="s">
         <v>439</v>
       </c>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
-      <c r="E2" s="136"/>
-      <c r="F2" s="136"/>
-      <c r="G2" s="136"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="136"/>
-      <c r="J2" s="136"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="141"/>
+      <c r="F2" s="141"/>
+      <c r="G2" s="141"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="141"/>
+      <c r="J2" s="141"/>
+      <c r="K2" s="141"/>
+      <c r="L2" s="141"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="166"/>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
+      <c r="A3" s="191"/>
+      <c r="B3" s="191"/>
+      <c r="C3" s="191"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="191"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="191"/>
+      <c r="H3" s="191"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="197" t="s">
         <v>440</v>
       </c>
-      <c r="B4" s="147"/>
-      <c r="C4" s="181" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="199" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="147"/>
-      <c r="E4" s="181" t="s">
+      <c r="D4" s="164"/>
+      <c r="E4" s="199" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="147"/>
-      <c r="G4" s="181" t="s">
+      <c r="F4" s="164"/>
+      <c r="G4" s="199" t="s">
         <v>443</v>
       </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="172" t="s">
+      <c r="H4" s="164"/>
+      <c r="I4" s="200" t="s">
         <v>444</v>
       </c>
-      <c r="J4" s="147"/>
-      <c r="K4" s="172" t="s">
+      <c r="J4" s="164"/>
+      <c r="K4" s="200" t="s">
         <v>445</v>
       </c>
-      <c r="L4" s="147"/>
-      <c r="M4" s="182"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="201"/>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="136"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="166"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="149"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="149"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="149"/>
-      <c r="M5" s="149"/>
+      <c r="A5" s="141"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="191"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="191"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="191"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="191"/>
+      <c r="J5" s="168"/>
+      <c r="K5" s="191"/>
+      <c r="L5" s="168"/>
+      <c r="M5" s="168"/>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="136"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="173" t="s">
+      <c r="A6" s="141"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="193" t="s">
         <v>446</v>
       </c>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="136"/>
-      <c r="J6" s="136"/>
-      <c r="K6" s="136"/>
-      <c r="L6" s="136"/>
-      <c r="M6" s="147"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
+      <c r="K6" s="141"/>
+      <c r="L6" s="141"/>
+      <c r="M6" s="164"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="136"/>
-      <c r="B7" s="147"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="136"/>
-      <c r="J7" s="136"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="147"/>
+      <c r="A7" s="141"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="141"/>
+      <c r="D7" s="141"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
+      <c r="K7" s="141"/>
+      <c r="L7" s="141"/>
+      <c r="M7" s="164"/>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="166"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="166"/>
-      <c r="L8" s="166"/>
-      <c r="M8" s="149"/>
+      <c r="A8" s="191"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="191"/>
+      <c r="D8" s="191"/>
+      <c r="E8" s="191"/>
+      <c r="F8" s="191"/>
+      <c r="G8" s="191"/>
+      <c r="H8" s="191"/>
+      <c r="I8" s="191"/>
+      <c r="J8" s="191"/>
+      <c r="K8" s="191"/>
+      <c r="L8" s="191"/>
+      <c r="M8" s="168"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="202" t="s">
         <v>447</v>
       </c>
-      <c r="B9" s="149"/>
-      <c r="C9" s="175" t="s">
+      <c r="B9" s="168"/>
+      <c r="C9" s="203" t="s">
         <v>448</v>
       </c>
-      <c r="D9" s="166"/>
-      <c r="E9" s="166"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="176" t="s">
+      <c r="D9" s="191"/>
+      <c r="E9" s="191"/>
+      <c r="F9" s="168"/>
+      <c r="G9" s="204" t="s">
         <v>449</v>
       </c>
-      <c r="H9" s="166"/>
-      <c r="I9" s="166"/>
-      <c r="J9" s="149"/>
-      <c r="K9" s="177" t="s">
+      <c r="H9" s="191"/>
+      <c r="I9" s="191"/>
+      <c r="J9" s="168"/>
+      <c r="K9" s="205" t="s">
         <v>448</v>
       </c>
-      <c r="L9" s="166"/>
-      <c r="M9" s="149"/>
+      <c r="L9" s="191"/>
+      <c r="M9" s="168"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="180" t="s">
+      <c r="A10" s="197" t="s">
         <v>450</v>
       </c>
-      <c r="B10" s="147"/>
-      <c r="C10" s="168" t="s">
+      <c r="B10" s="164"/>
+      <c r="C10" s="192" t="s">
         <v>451</v>
       </c>
-      <c r="D10" s="136"/>
-      <c r="E10" s="136"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="178" t="s">
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="206" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="147"/>
-      <c r="K10" s="168" t="s">
+      <c r="H10" s="141"/>
+      <c r="I10" s="141"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="192" t="s">
         <v>453</v>
       </c>
-      <c r="L10" s="136"/>
-      <c r="M10" s="147"/>
+      <c r="L10" s="141"/>
+      <c r="M10" s="164"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="136"/>
-      <c r="B11" s="147"/>
-      <c r="C11" s="136"/>
-      <c r="D11" s="136"/>
-      <c r="E11" s="136"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="136"/>
-      <c r="H11" s="136"/>
-      <c r="I11" s="136"/>
-      <c r="J11" s="147"/>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
-      <c r="M11" s="147"/>
+      <c r="A11" s="141"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="164"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136"/>
-      <c r="B12" s="147"/>
-      <c r="C12" s="136"/>
-      <c r="D12" s="136"/>
-      <c r="E12" s="136"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="147"/>
-      <c r="K12" s="136"/>
-      <c r="L12" s="136"/>
-      <c r="M12" s="147"/>
+      <c r="A12" s="141"/>
+      <c r="B12" s="164"/>
+      <c r="C12" s="141"/>
+      <c r="D12" s="141"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="141"/>
+      <c r="I12" s="141"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="141"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="164"/>
     </row>
     <row r="13" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="166"/>
-      <c r="B13" s="149"/>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
-      <c r="E13" s="166"/>
-      <c r="F13" s="149"/>
-      <c r="G13" s="166"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="166"/>
-      <c r="J13" s="149"/>
-      <c r="K13" s="166"/>
-      <c r="L13" s="166"/>
-      <c r="M13" s="149"/>
+      <c r="A13" s="191"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="191"/>
+      <c r="D13" s="191"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="191"/>
+      <c r="I13" s="191"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="191"/>
+      <c r="L13" s="191"/>
+      <c r="M13" s="168"/>
     </row>
     <row r="14" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="195" t="s">
         <v>454</v>
       </c>
-      <c r="B14" s="147"/>
-      <c r="C14" s="168" t="s">
+      <c r="B14" s="164"/>
+      <c r="C14" s="192" t="s">
         <v>455</v>
       </c>
-      <c r="D14" s="136"/>
-      <c r="E14" s="136"/>
-      <c r="F14" s="136"/>
-      <c r="G14" s="136"/>
-      <c r="H14" s="136"/>
-      <c r="I14" s="136"/>
-      <c r="J14" s="136"/>
-      <c r="K14" s="136"/>
-      <c r="L14" s="136"/>
-      <c r="M14" s="147"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="141"/>
+      <c r="J14" s="141"/>
+      <c r="K14" s="141"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="164"/>
     </row>
     <row r="15" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="146"/>
-      <c r="B15" s="147"/>
-      <c r="C15" s="136"/>
-      <c r="D15" s="136"/>
-      <c r="E15" s="136"/>
-      <c r="F15" s="136"/>
-      <c r="G15" s="136"/>
-      <c r="H15" s="136"/>
-      <c r="I15" s="136"/>
-      <c r="J15" s="136"/>
-      <c r="K15" s="136"/>
-      <c r="L15" s="136"/>
-      <c r="M15" s="147"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="164"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="141"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="141"/>
+      <c r="I15" s="141"/>
+      <c r="J15" s="141"/>
+      <c r="K15" s="141"/>
+      <c r="L15" s="141"/>
+      <c r="M15" s="164"/>
     </row>
     <row r="16" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="165"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
-      <c r="E16" s="166"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="166"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="166"/>
-      <c r="L16" s="166"/>
-      <c r="M16" s="149"/>
+      <c r="A16" s="190"/>
+      <c r="B16" s="168"/>
+      <c r="C16" s="191"/>
+      <c r="D16" s="191"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="191"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="191"/>
+      <c r="I16" s="191"/>
+      <c r="J16" s="191"/>
+      <c r="K16" s="191"/>
+      <c r="L16" s="191"/>
+      <c r="M16" s="168"/>
     </row>
     <row r="17" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="195" t="s">
         <v>456</v>
       </c>
-      <c r="B17" s="147"/>
-      <c r="C17" s="168" t="s">
+      <c r="B17" s="164"/>
+      <c r="C17" s="192" t="s">
         <v>457</v>
       </c>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="167" t="s">
+      <c r="D17" s="141"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="208" t="s">
         <v>458</v>
       </c>
-      <c r="H17" s="136"/>
-      <c r="I17" s="136"/>
-      <c r="J17" s="147"/>
-      <c r="K17" s="168" t="s">
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="164"/>
+      <c r="K17" s="192" t="s">
         <v>459</v>
       </c>
-      <c r="L17" s="136"/>
-      <c r="M17" s="147"/>
+      <c r="L17" s="141"/>
+      <c r="M17" s="164"/>
     </row>
     <row r="18" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="146"/>
-      <c r="B18" s="147"/>
-      <c r="C18" s="136"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="136"/>
-      <c r="H18" s="136"/>
-      <c r="I18" s="136"/>
-      <c r="J18" s="147"/>
-      <c r="K18" s="136"/>
-      <c r="L18" s="136"/>
-      <c r="M18" s="147"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="164"/>
+      <c r="C18" s="141"/>
+      <c r="D18" s="141"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="141"/>
+      <c r="L18" s="141"/>
+      <c r="M18" s="164"/>
     </row>
     <row r="19" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="165"/>
-      <c r="B19" s="149"/>
-      <c r="C19" s="166"/>
-      <c r="D19" s="166"/>
-      <c r="E19" s="166"/>
-      <c r="F19" s="149"/>
-      <c r="G19" s="166"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="149"/>
-      <c r="K19" s="166"/>
-      <c r="L19" s="166"/>
-      <c r="M19" s="149"/>
+      <c r="A19" s="190"/>
+      <c r="B19" s="168"/>
+      <c r="C19" s="191"/>
+      <c r="D19" s="191"/>
+      <c r="E19" s="191"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="191"/>
+      <c r="I19" s="191"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="191"/>
+      <c r="L19" s="191"/>
+      <c r="M19" s="168"/>
     </row>
     <row r="20" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="169" t="s">
+      <c r="A20" s="194" t="s">
         <v>460</v>
       </c>
-      <c r="B20" s="136"/>
-      <c r="C20" s="136"/>
-      <c r="D20" s="136"/>
-      <c r="E20" s="136"/>
-      <c r="F20" s="136"/>
-      <c r="G20" s="136"/>
-      <c r="H20" s="136"/>
-      <c r="I20" s="136"/>
-      <c r="J20" s="136"/>
-      <c r="K20" s="136"/>
-      <c r="L20" s="136"/>
-      <c r="M20" s="147"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="141"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="L20" s="141"/>
+      <c r="M20" s="164"/>
     </row>
     <row r="21" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="165"/>
-      <c r="B21" s="166"/>
-      <c r="C21" s="166"/>
-      <c r="D21" s="166"/>
-      <c r="E21" s="166"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="166"/>
-      <c r="H21" s="166"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="166"/>
-      <c r="L21" s="166"/>
-      <c r="M21" s="149"/>
+      <c r="A21" s="190"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="191"/>
+      <c r="D21" s="191"/>
+      <c r="E21" s="191"/>
+      <c r="F21" s="191"/>
+      <c r="G21" s="191"/>
+      <c r="H21" s="191"/>
+      <c r="I21" s="191"/>
+      <c r="J21" s="191"/>
+      <c r="K21" s="191"/>
+      <c r="L21" s="191"/>
+      <c r="M21" s="168"/>
     </row>
     <row r="22" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="171" t="s">
+      <c r="A22" s="195" t="s">
         <v>461</v>
       </c>
-      <c r="B22" s="147"/>
-      <c r="C22" s="168" t="s">
+      <c r="B22" s="164"/>
+      <c r="C22" s="192" t="s">
         <v>462</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="136"/>
-      <c r="J22" s="136"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="147"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="141"/>
+      <c r="I22" s="141"/>
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="164"/>
     </row>
     <row r="23" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="146"/>
-      <c r="B23" s="147"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136"/>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="147"/>
+      <c r="A23" s="172"/>
+      <c r="B23" s="164"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="L23" s="141"/>
+      <c r="M23" s="164"/>
     </row>
     <row r="24" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="165"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="166"/>
-      <c r="D24" s="166"/>
-      <c r="E24" s="166"/>
-      <c r="F24" s="166"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="166"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="166"/>
-      <c r="L24" s="166"/>
-      <c r="M24" s="149"/>
+      <c r="A24" s="190"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="191"/>
+      <c r="D24" s="191"/>
+      <c r="E24" s="191"/>
+      <c r="F24" s="191"/>
+      <c r="G24" s="191"/>
+      <c r="H24" s="191"/>
+      <c r="I24" s="191"/>
+      <c r="J24" s="191"/>
+      <c r="K24" s="191"/>
+      <c r="L24" s="191"/>
+      <c r="M24" s="168"/>
     </row>
     <row r="25" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="171" t="s">
+      <c r="A25" s="195" t="s">
         <v>463</v>
       </c>
-      <c r="B25" s="147"/>
-      <c r="C25" s="168" t="s">
+      <c r="B25" s="164"/>
+      <c r="C25" s="192" t="s">
         <v>464</v>
       </c>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="G25" s="136"/>
-      <c r="H25" s="136"/>
-      <c r="I25" s="136"/>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="147"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="141"/>
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="164"/>
     </row>
     <row r="26" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="146"/>
-      <c r="B26" s="147"/>
-      <c r="C26" s="136"/>
-      <c r="D26" s="136"/>
-      <c r="E26" s="136"/>
-      <c r="F26" s="136"/>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="136"/>
-      <c r="J26" s="136"/>
-      <c r="K26" s="136"/>
-      <c r="L26" s="136"/>
-      <c r="M26" s="147"/>
+      <c r="A26" s="172"/>
+      <c r="B26" s="164"/>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="141"/>
+      <c r="I26" s="141"/>
+      <c r="J26" s="141"/>
+      <c r="K26" s="141"/>
+      <c r="L26" s="141"/>
+      <c r="M26" s="164"/>
     </row>
     <row r="27" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="165"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="166"/>
-      <c r="D27" s="166"/>
-      <c r="E27" s="166"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="166"/>
-      <c r="H27" s="166"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="149"/>
+      <c r="A27" s="190"/>
+      <c r="B27" s="168"/>
+      <c r="C27" s="191"/>
+      <c r="D27" s="191"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
+      <c r="L27" s="191"/>
+      <c r="M27" s="168"/>
     </row>
     <row r="28" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A28" s="183" t="s">
+      <c r="A28" s="196" t="s">
         <v>465</v>
       </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="168" t="s">
+      <c r="B28" s="164"/>
+      <c r="C28" s="192" t="s">
         <v>466</v>
       </c>
-      <c r="D28" s="136"/>
-      <c r="E28" s="136"/>
-      <c r="F28" s="136"/>
-      <c r="G28" s="136"/>
-      <c r="H28" s="136"/>
-      <c r="I28" s="136"/>
-      <c r="J28" s="136"/>
-      <c r="K28" s="136"/>
-      <c r="L28" s="136"/>
-      <c r="M28" s="147"/>
+      <c r="D28" s="141"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="141"/>
+      <c r="I28" s="141"/>
+      <c r="J28" s="141"/>
+      <c r="K28" s="141"/>
+      <c r="L28" s="141"/>
+      <c r="M28" s="164"/>
     </row>
     <row r="29" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="147"/>
-      <c r="C29" s="136"/>
-      <c r="D29" s="136"/>
-      <c r="E29" s="136"/>
-      <c r="F29" s="136"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="136"/>
-      <c r="I29" s="136"/>
-      <c r="J29" s="136"/>
-      <c r="K29" s="136"/>
-      <c r="L29" s="136"/>
-      <c r="M29" s="147"/>
+      <c r="A29" s="172"/>
+      <c r="B29" s="164"/>
+      <c r="C29" s="141"/>
+      <c r="D29" s="141"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="141"/>
+      <c r="I29" s="141"/>
+      <c r="J29" s="141"/>
+      <c r="K29" s="141"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="164"/>
     </row>
     <row r="30" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="165"/>
-      <c r="B30" s="149"/>
-      <c r="C30" s="166"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="166"/>
-      <c r="M30" s="149"/>
+      <c r="A30" s="190"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="191"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="191"/>
+      <c r="F30" s="191"/>
+      <c r="G30" s="191"/>
+      <c r="H30" s="191"/>
+      <c r="I30" s="191"/>
+      <c r="J30" s="191"/>
+      <c r="K30" s="191"/>
+      <c r="L30" s="191"/>
+      <c r="M30" s="168"/>
     </row>
     <row r="31" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="180" t="s">
+      <c r="A31" s="197" t="s">
         <v>467</v>
       </c>
-      <c r="B31" s="147"/>
-      <c r="C31" s="170" t="s">
+      <c r="B31" s="164"/>
+      <c r="C31" s="207" t="s">
         <v>468</v>
       </c>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="147"/>
+      <c r="D31" s="141"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="141"/>
+      <c r="I31" s="141"/>
+      <c r="J31" s="141"/>
+      <c r="K31" s="141"/>
+      <c r="L31" s="141"/>
+      <c r="M31" s="164"/>
     </row>
     <row r="32" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="166"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="166"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="166"/>
-      <c r="M32" s="149"/>
+      <c r="A32" s="191"/>
+      <c r="B32" s="168"/>
+      <c r="C32" s="191"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="191"/>
+      <c r="F32" s="191"/>
+      <c r="G32" s="191"/>
+      <c r="H32" s="191"/>
+      <c r="I32" s="191"/>
+      <c r="J32" s="191"/>
+      <c r="K32" s="191"/>
+      <c r="L32" s="191"/>
+      <c r="M32" s="168"/>
     </row>
     <row r="33" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="169" t="s">
+      <c r="A33" s="194" t="s">
         <v>469</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="147"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="164"/>
     </row>
     <row r="34" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="165"/>
-      <c r="B34" s="166"/>
-      <c r="C34" s="166"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="166"/>
-      <c r="L34" s="166"/>
-      <c r="M34" s="149"/>
+      <c r="A34" s="190"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191"/>
+      <c r="D34" s="191"/>
+      <c r="E34" s="191"/>
+      <c r="F34" s="191"/>
+      <c r="G34" s="191"/>
+      <c r="H34" s="191"/>
+      <c r="I34" s="191"/>
+      <c r="J34" s="191"/>
+      <c r="K34" s="191"/>
+      <c r="L34" s="191"/>
+      <c r="M34" s="168"/>
     </row>
     <row r="35" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="171" t="s">
+      <c r="A35" s="195" t="s">
         <v>470</v>
       </c>
-      <c r="B35" s="147"/>
-      <c r="C35" s="168" t="s">
+      <c r="B35" s="164"/>
+      <c r="C35" s="192" t="s">
         <v>471</v>
       </c>
-      <c r="D35" s="136"/>
-      <c r="E35" s="136"/>
-      <c r="F35" s="136"/>
-      <c r="G35" s="136"/>
-      <c r="H35" s="136"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="147"/>
+      <c r="D35" s="141"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="141"/>
+      <c r="J35" s="141"/>
+      <c r="K35" s="141"/>
+      <c r="L35" s="141"/>
+      <c r="M35" s="164"/>
     </row>
     <row r="36" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="165"/>
-      <c r="B36" s="149"/>
-      <c r="C36" s="166"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="166"/>
-      <c r="F36" s="166"/>
-      <c r="G36" s="166"/>
-      <c r="H36" s="166"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="166"/>
-      <c r="L36" s="166"/>
-      <c r="M36" s="149"/>
+      <c r="A36" s="190"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="191"/>
+      <c r="D36" s="191"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="191"/>
+      <c r="G36" s="191"/>
+      <c r="H36" s="191"/>
+      <c r="I36" s="191"/>
+      <c r="J36" s="191"/>
+      <c r="K36" s="191"/>
+      <c r="L36" s="191"/>
+      <c r="M36" s="168"/>
     </row>
     <row r="37" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="171" t="s">
+      <c r="A37" s="195" t="s">
         <v>472</v>
       </c>
-      <c r="B37" s="147"/>
-      <c r="C37" s="168" t="s">
+      <c r="B37" s="164"/>
+      <c r="C37" s="192" t="s">
         <v>473</v>
       </c>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="147"/>
+      <c r="D37" s="141"/>
+      <c r="E37" s="141"/>
+      <c r="F37" s="141"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="141"/>
+      <c r="I37" s="141"/>
+      <c r="J37" s="141"/>
+      <c r="K37" s="141"/>
+      <c r="L37" s="141"/>
+      <c r="M37" s="164"/>
     </row>
     <row r="38" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="165"/>
-      <c r="B38" s="149"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="166"/>
-      <c r="E38" s="166"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="166"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="166"/>
-      <c r="L38" s="166"/>
-      <c r="M38" s="149"/>
+      <c r="A38" s="190"/>
+      <c r="B38" s="168"/>
+      <c r="C38" s="191"/>
+      <c r="D38" s="191"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="191"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="191"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="191"/>
+      <c r="K38" s="191"/>
+      <c r="L38" s="191"/>
+      <c r="M38" s="168"/>
     </row>
     <row r="39" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="171" t="s">
+      <c r="A39" s="195" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="147"/>
-      <c r="C39" s="168" t="s">
+      <c r="B39" s="164"/>
+      <c r="C39" s="192" t="s">
         <v>475</v>
       </c>
-      <c r="D39" s="136"/>
-      <c r="E39" s="136"/>
-      <c r="F39" s="136"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="136"/>
-      <c r="J39" s="136"/>
-      <c r="K39" s="136"/>
-      <c r="L39" s="136"/>
-      <c r="M39" s="147"/>
+      <c r="D39" s="141"/>
+      <c r="E39" s="141"/>
+      <c r="F39" s="141"/>
+      <c r="G39" s="141"/>
+      <c r="H39" s="141"/>
+      <c r="I39" s="141"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="141"/>
+      <c r="L39" s="141"/>
+      <c r="M39" s="164"/>
     </row>
     <row r="40" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="165"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="166"/>
-      <c r="D40" s="166"/>
-      <c r="E40" s="166"/>
-      <c r="F40" s="166"/>
-      <c r="G40" s="166"/>
-      <c r="H40" s="166"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="166"/>
-      <c r="L40" s="166"/>
-      <c r="M40" s="149"/>
+      <c r="A40" s="190"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="191"/>
+      <c r="D40" s="191"/>
+      <c r="E40" s="191"/>
+      <c r="F40" s="191"/>
+      <c r="G40" s="191"/>
+      <c r="H40" s="191"/>
+      <c r="I40" s="191"/>
+      <c r="J40" s="191"/>
+      <c r="K40" s="191"/>
+      <c r="L40" s="191"/>
+      <c r="M40" s="168"/>
     </row>
     <row r="41" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="194" t="s">
         <v>476</v>
       </c>
-      <c r="B41" s="136"/>
-      <c r="C41" s="136"/>
-      <c r="D41" s="136"/>
-      <c r="E41" s="136"/>
-      <c r="F41" s="136"/>
-      <c r="G41" s="136"/>
-      <c r="H41" s="136"/>
-      <c r="I41" s="136"/>
-      <c r="J41" s="136"/>
-      <c r="K41" s="136"/>
-      <c r="L41" s="136"/>
-      <c r="M41" s="147"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="141"/>
+      <c r="D41" s="141"/>
+      <c r="E41" s="141"/>
+      <c r="F41" s="141"/>
+      <c r="G41" s="141"/>
+      <c r="H41" s="141"/>
+      <c r="I41" s="141"/>
+      <c r="J41" s="141"/>
+      <c r="K41" s="141"/>
+      <c r="L41" s="141"/>
+      <c r="M41" s="164"/>
     </row>
     <row r="42" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="165"/>
-      <c r="B42" s="166"/>
-      <c r="C42" s="166"/>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
-      <c r="F42" s="166"/>
-      <c r="G42" s="166"/>
-      <c r="H42" s="166"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="166"/>
-      <c r="L42" s="166"/>
-      <c r="M42" s="149"/>
+      <c r="A42" s="190"/>
+      <c r="B42" s="191"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
+      <c r="L42" s="191"/>
+      <c r="M42" s="168"/>
     </row>
     <row r="43" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="195" t="s">
         <v>477</v>
       </c>
-      <c r="B43" s="147"/>
-      <c r="C43" s="168" t="s">
+      <c r="B43" s="164"/>
+      <c r="C43" s="192" t="s">
         <v>478</v>
       </c>
-      <c r="D43" s="136"/>
-      <c r="E43" s="136"/>
-      <c r="F43" s="136"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="136"/>
-      <c r="I43" s="136"/>
-      <c r="J43" s="136"/>
-      <c r="K43" s="136"/>
-      <c r="L43" s="136"/>
-      <c r="M43" s="147"/>
+      <c r="D43" s="141"/>
+      <c r="E43" s="141"/>
+      <c r="F43" s="141"/>
+      <c r="G43" s="141"/>
+      <c r="H43" s="141"/>
+      <c r="I43" s="141"/>
+      <c r="J43" s="141"/>
+      <c r="K43" s="141"/>
+      <c r="L43" s="141"/>
+      <c r="M43" s="164"/>
     </row>
     <row r="44" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="146"/>
-      <c r="B44" s="147"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="147"/>
+      <c r="A44" s="172"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="141"/>
+      <c r="D44" s="141"/>
+      <c r="E44" s="141"/>
+      <c r="F44" s="141"/>
+      <c r="G44" s="141"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="141"/>
+      <c r="J44" s="141"/>
+      <c r="K44" s="141"/>
+      <c r="L44" s="141"/>
+      <c r="M44" s="164"/>
     </row>
     <row r="45" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="165"/>
-      <c r="B45" s="149"/>
-      <c r="C45" s="166"/>
-      <c r="D45" s="166"/>
-      <c r="E45" s="166"/>
-      <c r="F45" s="166"/>
-      <c r="G45" s="166"/>
-      <c r="H45" s="166"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="166"/>
-      <c r="L45" s="166"/>
-      <c r="M45" s="149"/>
+      <c r="A45" s="190"/>
+      <c r="B45" s="168"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
+      <c r="L45" s="191"/>
+      <c r="M45" s="168"/>
     </row>
     <row r="46" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="171" t="s">
+      <c r="A46" s="195" t="s">
         <v>479</v>
       </c>
-      <c r="B46" s="147"/>
-      <c r="C46" s="168" t="s">
+      <c r="B46" s="164"/>
+      <c r="C46" s="192" t="s">
         <v>480</v>
       </c>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="147"/>
+      <c r="D46" s="141"/>
+      <c r="E46" s="141"/>
+      <c r="F46" s="141"/>
+      <c r="G46" s="141"/>
+      <c r="H46" s="141"/>
+      <c r="I46" s="141"/>
+      <c r="J46" s="141"/>
+      <c r="K46" s="141"/>
+      <c r="L46" s="141"/>
+      <c r="M46" s="164"/>
     </row>
     <row r="47" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="165"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="166"/>
-      <c r="D47" s="166"/>
-      <c r="E47" s="166"/>
-      <c r="F47" s="166"/>
-      <c r="G47" s="166"/>
-      <c r="H47" s="166"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="166"/>
-      <c r="L47" s="166"/>
-      <c r="M47" s="149"/>
+      <c r="A47" s="190"/>
+      <c r="B47" s="168"/>
+      <c r="C47" s="191"/>
+      <c r="D47" s="191"/>
+      <c r="E47" s="191"/>
+      <c r="F47" s="191"/>
+      <c r="G47" s="191"/>
+      <c r="H47" s="191"/>
+      <c r="I47" s="191"/>
+      <c r="J47" s="191"/>
+      <c r="K47" s="191"/>
+      <c r="L47" s="191"/>
+      <c r="M47" s="168"/>
     </row>
     <row r="48" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="183" t="s">
+      <c r="A48" s="196" t="s">
         <v>481</v>
       </c>
-      <c r="B48" s="147"/>
-      <c r="C48" s="168" t="s">
+      <c r="B48" s="164"/>
+      <c r="C48" s="192" t="s">
         <v>482</v>
       </c>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="147"/>
+      <c r="D48" s="141"/>
+      <c r="E48" s="141"/>
+      <c r="F48" s="141"/>
+      <c r="G48" s="141"/>
+      <c r="H48" s="141"/>
+      <c r="I48" s="141"/>
+      <c r="J48" s="141"/>
+      <c r="K48" s="141"/>
+      <c r="L48" s="141"/>
+      <c r="M48" s="164"/>
     </row>
     <row r="49" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="165"/>
-      <c r="B49" s="149"/>
-      <c r="C49" s="166"/>
-      <c r="D49" s="166"/>
-      <c r="E49" s="166"/>
-      <c r="F49" s="166"/>
-      <c r="G49" s="166"/>
-      <c r="H49" s="166"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="166"/>
-      <c r="L49" s="166"/>
-      <c r="M49" s="149"/>
+      <c r="A49" s="190"/>
+      <c r="B49" s="168"/>
+      <c r="C49" s="191"/>
+      <c r="D49" s="191"/>
+      <c r="E49" s="191"/>
+      <c r="F49" s="191"/>
+      <c r="G49" s="191"/>
+      <c r="H49" s="191"/>
+      <c r="I49" s="191"/>
+      <c r="J49" s="191"/>
+      <c r="K49" s="191"/>
+      <c r="L49" s="191"/>
+      <c r="M49" s="168"/>
     </row>
     <row r="50" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="171" t="s">
+      <c r="A50" s="195" t="s">
         <v>483</v>
       </c>
-      <c r="B50" s="147"/>
-      <c r="C50" s="173" t="s">
+      <c r="B50" s="164"/>
+      <c r="C50" s="193" t="s">
         <v>484</v>
       </c>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="147"/>
+      <c r="D50" s="141"/>
+      <c r="E50" s="141"/>
+      <c r="F50" s="141"/>
+      <c r="G50" s="141"/>
+      <c r="H50" s="141"/>
+      <c r="I50" s="141"/>
+      <c r="J50" s="141"/>
+      <c r="K50" s="141"/>
+      <c r="L50" s="141"/>
+      <c r="M50" s="164"/>
     </row>
     <row r="51" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="165"/>
-      <c r="B51" s="149"/>
-      <c r="C51" s="166"/>
-      <c r="D51" s="166"/>
-      <c r="E51" s="166"/>
-      <c r="F51" s="166"/>
-      <c r="G51" s="166"/>
-      <c r="H51" s="166"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="166"/>
-      <c r="L51" s="166"/>
-      <c r="M51" s="149"/>
+      <c r="A51" s="190"/>
+      <c r="B51" s="168"/>
+      <c r="C51" s="191"/>
+      <c r="D51" s="191"/>
+      <c r="E51" s="191"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
+      <c r="H51" s="191"/>
+      <c r="I51" s="191"/>
+      <c r="J51" s="191"/>
+      <c r="K51" s="191"/>
+      <c r="L51" s="191"/>
+      <c r="M51" s="168"/>
     </row>
     <row r="52" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="169" t="s">
+      <c r="A52" s="194" t="s">
         <v>485</v>
       </c>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="147"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
+      <c r="G52" s="141"/>
+      <c r="H52" s="141"/>
+      <c r="I52" s="141"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="164"/>
     </row>
     <row r="53" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="165"/>
-      <c r="B53" s="166"/>
-      <c r="C53" s="166"/>
-      <c r="D53" s="166"/>
-      <c r="E53" s="166"/>
-      <c r="F53" s="166"/>
-      <c r="G53" s="166"/>
-      <c r="H53" s="166"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="166"/>
-      <c r="K53" s="166"/>
-      <c r="L53" s="166"/>
-      <c r="M53" s="149"/>
+      <c r="A53" s="190"/>
+      <c r="B53" s="191"/>
+      <c r="C53" s="191"/>
+      <c r="D53" s="191"/>
+      <c r="E53" s="191"/>
+      <c r="F53" s="191"/>
+      <c r="G53" s="191"/>
+      <c r="H53" s="191"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="191"/>
+      <c r="K53" s="191"/>
+      <c r="L53" s="191"/>
+      <c r="M53" s="168"/>
     </row>
     <row r="54" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="171" t="s">
+      <c r="A54" s="195" t="s">
         <v>486</v>
       </c>
-      <c r="B54" s="147"/>
-      <c r="C54" s="168" t="s">
+      <c r="B54" s="164"/>
+      <c r="C54" s="192" t="s">
         <v>487</v>
       </c>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="147"/>
+      <c r="D54" s="141"/>
+      <c r="E54" s="141"/>
+      <c r="F54" s="141"/>
+      <c r="G54" s="141"/>
+      <c r="H54" s="141"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="141"/>
+      <c r="K54" s="141"/>
+      <c r="L54" s="141"/>
+      <c r="M54" s="164"/>
     </row>
     <row r="55" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="146"/>
-      <c r="B55" s="147"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="147"/>
+      <c r="A55" s="172"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="141"/>
+      <c r="D55" s="141"/>
+      <c r="E55" s="141"/>
+      <c r="F55" s="141"/>
+      <c r="G55" s="141"/>
+      <c r="H55" s="141"/>
+      <c r="I55" s="141"/>
+      <c r="J55" s="141"/>
+      <c r="K55" s="141"/>
+      <c r="L55" s="141"/>
+      <c r="M55" s="164"/>
     </row>
     <row r="56" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A56" s="146"/>
-      <c r="B56" s="147"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="147"/>
+      <c r="A56" s="172"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="141"/>
+      <c r="D56" s="141"/>
+      <c r="E56" s="141"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="141"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="141"/>
+      <c r="K56" s="141"/>
+      <c r="L56" s="141"/>
+      <c r="M56" s="164"/>
     </row>
     <row r="57" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="146"/>
-      <c r="B57" s="147"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="147"/>
+      <c r="A57" s="172"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="141"/>
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="141"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="141"/>
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="164"/>
     </row>
     <row r="58" spans="1:13" ht="12.5" x14ac:dyDescent="0.25">
-      <c r="A58" s="165"/>
-      <c r="B58" s="149"/>
-      <c r="C58" s="166"/>
-      <c r="D58" s="166"/>
-      <c r="E58" s="166"/>
-      <c r="F58" s="166"/>
-      <c r="G58" s="166"/>
-      <c r="H58" s="166"/>
-      <c r="I58" s="166"/>
-      <c r="J58" s="166"/>
-      <c r="K58" s="166"/>
-      <c r="L58" s="166"/>
-      <c r="M58" s="149"/>
+      <c r="A58" s="190"/>
+      <c r="B58" s="168"/>
+      <c r="C58" s="191"/>
+      <c r="D58" s="191"/>
+      <c r="E58" s="191"/>
+      <c r="F58" s="191"/>
+      <c r="G58" s="191"/>
+      <c r="H58" s="191"/>
+      <c r="I58" s="191"/>
+      <c r="J58" s="191"/>
+      <c r="K58" s="191"/>
+      <c r="L58" s="191"/>
+      <c r="M58" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C48:M49"/>
-    <mergeCell ref="C50:M51"/>
-    <mergeCell ref="A52:M53"/>
-    <mergeCell ref="C54:M58"/>
-    <mergeCell ref="A54:B58"/>
-    <mergeCell ref="A48:B49"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="A43:B45"/>
-    <mergeCell ref="A46:B47"/>
-    <mergeCell ref="A10:B13"/>
-    <mergeCell ref="A14:B16"/>
-    <mergeCell ref="A17:B19"/>
-    <mergeCell ref="A22:B24"/>
-    <mergeCell ref="A25:B27"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="A4:B8"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="E4:F5"/>
-    <mergeCell ref="G4:H5"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="G17:J19"/>
+    <mergeCell ref="K17:M19"/>
+    <mergeCell ref="A20:M21"/>
+    <mergeCell ref="C22:M24"/>
+    <mergeCell ref="C25:M27"/>
+    <mergeCell ref="C28:M30"/>
+    <mergeCell ref="C31:M32"/>
+    <mergeCell ref="A33:M34"/>
+    <mergeCell ref="C35:M36"/>
+    <mergeCell ref="C37:M38"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="A28:B30"/>
+    <mergeCell ref="A31:B32"/>
     <mergeCell ref="C39:M40"/>
     <mergeCell ref="A41:M42"/>
     <mergeCell ref="C43:M45"/>
@@ -66414,19 +66385,28 @@
     <mergeCell ref="K10:M13"/>
     <mergeCell ref="C14:M16"/>
     <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C28:M30"/>
-    <mergeCell ref="C31:M32"/>
-    <mergeCell ref="A33:M34"/>
-    <mergeCell ref="C35:M36"/>
-    <mergeCell ref="C37:M38"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="A28:B30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="G17:J19"/>
-    <mergeCell ref="K17:M19"/>
-    <mergeCell ref="A20:M21"/>
-    <mergeCell ref="C22:M24"/>
-    <mergeCell ref="C25:M27"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="A4:B8"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="E4:F5"/>
+    <mergeCell ref="G4:H5"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="A43:B45"/>
+    <mergeCell ref="A46:B47"/>
+    <mergeCell ref="A10:B13"/>
+    <mergeCell ref="A14:B16"/>
+    <mergeCell ref="A17:B19"/>
+    <mergeCell ref="A22:B24"/>
+    <mergeCell ref="A25:B27"/>
+    <mergeCell ref="C48:M49"/>
+    <mergeCell ref="C50:M51"/>
+    <mergeCell ref="A52:M53"/>
+    <mergeCell ref="C54:M58"/>
+    <mergeCell ref="A54:B58"/>
+    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A50:B51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
